--- a/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9.xlsx
+++ b/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>No</t>
   </si>
@@ -305,6 +305,25 @@
   </si>
   <si>
     <t>PM-1105</t>
+  </si>
+  <si>
+    <t>数据中心优化</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙苏文</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/0419</t>
   </si>
 </sst>
 </file>
@@ -746,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,6 +1000,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1008,14 +1036,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1034,7 +1059,7 @@
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1045,11 +1070,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1396,7 +1419,7 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1506,7 +1529,7 @@
       <c r="C2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="80" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="58" t="s">
@@ -1528,7 +1551,7 @@
         <v>42836</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="79" t="s">
         <v>74</v>
       </c>
       <c r="M2" s="58" t="s">
@@ -1550,7 +1573,7 @@
         <v>79</v>
       </c>
       <c r="S2"/>
-      <c r="T2" s="87">
+      <c r="T2" s="78">
         <v>10461</v>
       </c>
       <c r="U2" s="56"/>
@@ -1568,7 +1591,7 @@
       <c r="C3" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="80" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="58" t="s">
@@ -1590,7 +1613,7 @@
         <v>42841</v>
       </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="79" t="s">
         <v>83</v>
       </c>
       <c r="M3" s="58" t="s">
@@ -1620,30 +1643,64 @@
       <c r="W3" s="74"/>
       <c r="X3" s="73"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="90">
+        <v>3</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="59">
+        <v>42842</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="59">
+        <v>42842</v>
+      </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="62"/>
+      <c r="L4" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="79" t="s">
+        <v>79</v>
+      </c>
       <c r="S4" s="56"/>
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="67"/>
-      <c r="W4" s="72"/>
+      <c r="W4" s="91"/>
       <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -5693,7 +5750,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 V1:V1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 V1:V1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5877,19 +5934,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5927,8 +5984,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5940,8 +5997,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5953,8 +6010,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5966,8 +6023,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5979,8 +6036,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5992,8 +6049,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6005,8 +6062,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6018,8 +6075,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6080,36 +6137,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6394,36 +6451,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6708,36 +6765,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7024,36 +7081,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9.xlsx
+++ b/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.3.9 20170418\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.3.9 20170418/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="13365" tabRatio="778"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="778" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.9 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,16 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="191">
   <si>
     <t>No</t>
   </si>
@@ -324,13 +329,500 @@
   </si>
   <si>
     <t>2017/0419</t>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉多余字段</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGYFZZ-212</t>
+  </si>
+  <si>
+    <t>官网微官网显示分期租金</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军、朱彤、李明</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYF-431</t>
+  </si>
+  <si>
+    <r>
+      <t>租客A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PP月付</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟、吕崇新、苏玉军</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇月付转化漏斗列表</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚海强</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYXBB-24</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇月付转化率图线</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYF-435</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请月付时上传资料的图片压缩</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYXBB-28</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>第三期性能优化</t>
+    <rPh sb="0" eb="1">
+      <t>di'san'qi</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter,rentertp,lts</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <rPh sb="0" eb="1">
+      <t>w'h</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+  </si>
+  <si>
+    <t>施超</t>
+    <rPh sb="0" eb="1">
+      <t>s'c</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-1165</t>
+  </si>
+  <si>
+    <t>房东对预订单发起签约，自定义押金为0，签约成功，无押金账单</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>papp</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <rPh sb="0" eb="1">
+      <t>c'b</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>许倩</t>
+    <rPh sb="0" eb="1">
+      <t>xu'q</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC菜单变更需求</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁冰秋</t>
+    <rPh sb="0" eb="1">
+      <t>y'b'q</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2436</t>
+  </si>
+  <si>
+    <t>租客登记短信文案修改</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc，partner,papp</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线时要改BS短信</t>
+    <rPh sb="0" eb="1">
+      <t>shang'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duan'x</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3203</t>
+  </si>
+  <si>
+    <t>房态租约监控</t>
+    <rPh sb="0" eb="1">
+      <t>fang't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'k</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>lts</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <rPh sb="0" eb="1">
+      <t>w'x'y</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM-1203</t>
+  </si>
+  <si>
+    <t>月付APP</t>
+    <rPh sb="0" eb="1">
+      <t>yue'fu</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter,rentertp,renterembed</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈奇</t>
+    <rPh sb="0" eb="1">
+      <t>chen'qi</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪伟玉</t>
+    <rPh sb="0" eb="1">
+      <t>j'w'y</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM-816</t>
+  </si>
+  <si>
+    <t>租客APP账单结构调整</t>
+    <rPh sb="0" eb="1">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhang'd</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao'zh</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈婧</t>
+    <rPh sb="0" eb="1">
+      <t>chen'jing</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM-1021</t>
+  </si>
+  <si>
+    <t>KA功能优化</t>
+    <rPh sb="2" eb="3">
+      <t>gogn'n</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'h</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>openapi</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>重楼</t>
+    <rPh sb="0" eb="1">
+      <t>chong'l</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>依米</t>
+    <rPh sb="0" eb="1">
+      <t>yi'mi</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>KA-1</t>
+  </si>
+  <si>
+    <t>H5宣传页面优化</t>
+    <rPh sb="2" eb="3">
+      <t>xuan'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterembed、renterembed-fe</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨菲</t>
+    <rPh sb="0" eb="1">
+      <t>mo'fei</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷锋</t>
+    <rPh sb="0" eb="1">
+      <t>leng'feng</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3239</t>
+  </si>
+  <si>
+    <t>数据库fechsize</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renter
+RenterPC
+Renterembed
+Partner
+PartnerPapp
+PartnerPC
+BS
+LTS（定时器）</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.properties</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>免测</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-1231</t>
+  </si>
+  <si>
+    <t>架构</t>
+  </si>
+  <si>
+    <t>release_5.3.9_20170418</t>
+  </si>
+  <si>
+    <t>Renter</t>
+  </si>
+  <si>
+    <t>RenterPC</t>
+  </si>
+  <si>
+    <t>Renterembed</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>PartnerPapp</t>
+  </si>
+  <si>
+    <t>PartnerPC</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>LTS（定时器）</t>
+  </si>
+  <si>
+    <t>/conf/jdbc.properties</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>数据库url后面添加：&amp;useCursorFetch=true&amp;defaultFetchSize=100</t>
+  </si>
+  <si>
+    <t>例如：添加后为：</t>
+  </si>
+  <si>
+    <t>jdbc.url=jdbc:mysql://192.168.60.213:3306/mogo_dev?useUnicode=true&amp;characterEncoding=UTF-8&amp;useCursorFetch=true&amp;defaultFetchSize=1000</t>
+  </si>
+  <si>
+    <t>数据库查询数据批次查询防止溢出</t>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>宋伟</t>
+  </si>
+  <si>
+    <t>沈城</t>
+  </si>
+  <si>
+    <t>架构</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>release_5.3.9_20170418</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renter
+RenterPC
+Renterembed
+Partner
+PartnerPapp
+PartnerPC
+BS
+LTS（定时器）</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>/conf/jdbc.properties</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库url后面添加：&amp;useCursorFetch=true&amp;defaultFetchSize=100
+例如：添加后为：
+jdbc.url=jdbc:mysql://192.168.60.213:3306/mogo_dev?useUnicode=true&amp;characterEncoding=UTF-8&amp;useCursorFetch=true&amp;defaultFetchSize=1000</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库查询数据批次查询防止溢出</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈城</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>/conf/jdbc.properties</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库url后面添加：&amp;useCursorFetch=true&amp;defaultFetchSize=100
+例如：添加后为：
+jdbc.url=jdbc:mysql://192.168.60.213:3306/mogo_dev?useUnicode=true&amp;characterEncoding=UTF-8&amp;useCursorFetch=true&amp;defaultFetchSize=1000</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈城</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -515,8 +1007,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="161"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,8 +1075,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -706,17 +1216,41 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
@@ -728,6 +1262,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -765,7 +1360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,28 +1550,19 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,6 +1595,12 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1036,11 +1628,86 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1057,7 +1724,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
+    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1071,8 +1738,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1418,37 +2085,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="30.375" style="48" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="47" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="48" customWidth="1"/>
     <col min="5" max="5" width="15" style="47" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="48" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="48" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="47" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="47" customWidth="1"/>
-    <col min="14" max="15" width="11.375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="47" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="47" customWidth="1"/>
+    <col min="14" max="15" width="11.33203125" style="47" customWidth="1"/>
     <col min="16" max="16" width="10" style="48" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="48" customWidth="1"/>
-    <col min="18" max="18" width="7.625" style="48" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="48" customWidth="1"/>
     <col min="19" max="20" width="12" style="49" customWidth="1"/>
     <col min="21" max="21" width="17" style="49" customWidth="1"/>
-    <col min="22" max="22" width="14.125" style="49" customWidth="1"/>
-    <col min="23" max="23" width="41.875" style="48" customWidth="1"/>
-    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="49" customWidth="1"/>
+    <col min="23" max="23" width="41.83203125" style="48" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +2196,7 @@
       <c r="C2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="77" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="58" t="s">
@@ -1551,7 +2218,7 @@
         <v>42836</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="79" t="s">
+      <c r="L2" s="76" t="s">
         <v>74</v>
       </c>
       <c r="M2" s="58" t="s">
@@ -1573,15 +2240,15 @@
         <v>79</v>
       </c>
       <c r="S2"/>
-      <c r="T2" s="78">
+      <c r="T2" s="75">
         <v>10461</v>
       </c>
       <c r="U2" s="56"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="73"/>
-    </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="V2" s="64"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="70"/>
+    </row>
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -1591,7 +2258,7 @@
       <c r="C3" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="77" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="58" t="s">
@@ -1613,7 +2280,7 @@
         <v>42841</v>
       </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="79" t="s">
+      <c r="L3" s="76" t="s">
         <v>83</v>
       </c>
       <c r="M3" s="58" t="s">
@@ -1634,26 +2301,26 @@
       <c r="R3" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="68" t="s">
+      <c r="S3" s="65" t="s">
         <v>86</v>
       </c>
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="73"/>
-    </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="90">
+      <c r="V3" s="64"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="70"/>
+    </row>
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A4" s="51">
         <v>3</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="77" t="s">
         <v>87</v>
       </c>
       <c r="E4" s="58" t="s">
@@ -1675,7 +2342,7 @@
         <v>42842</v>
       </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="79" t="s">
+      <c r="L4" s="76" t="s">
         <v>89</v>
       </c>
       <c r="M4" s="58" t="s">
@@ -1687,436 +2354,995 @@
       <c r="O4" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="76" t="s">
         <v>78</v>
       </c>
       <c r="Q4" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="76" t="s">
         <v>79</v>
       </c>
       <c r="S4" s="56"/>
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="91"/>
-      <c r="X4" s="73"/>
-    </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="58"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="70"/>
+    </row>
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="G5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="59">
+        <v>42832</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="59">
+        <v>42832</v>
+      </c>
       <c r="K5" s="58"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
+      <c r="L5" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="59">
+        <v>42838</v>
+      </c>
+      <c r="R5" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="65"/>
       <c r="U5" s="56"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="73"/>
-    </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="58"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="70"/>
+    </row>
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="G6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="59">
+        <v>42832</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="59">
+        <v>42832</v>
+      </c>
       <c r="K6" s="58"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
+      <c r="L6" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>42838</v>
+      </c>
+      <c r="R6" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="T6" s="65"/>
       <c r="U6" s="56"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="73"/>
-    </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="58"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="70"/>
+    </row>
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="51">
+        <v>6</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+      <c r="G7" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="59">
+        <v>42832</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="59">
+        <v>42832</v>
+      </c>
       <c r="K7" s="58"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+      <c r="L7" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>76</v>
+      </c>
       <c r="O7" s="58"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="56"/>
+      <c r="P7" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R7" s="76" t="s">
+        <v>79</v>
+      </c>
       <c r="T7" s="56"/>
       <c r="U7" s="56"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="73"/>
-    </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="58"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="70"/>
+    </row>
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="51">
+        <v>7</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="G8" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="59">
+        <v>42832</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="59">
+        <v>42832</v>
+      </c>
       <c r="K8" s="58"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="56"/>
+      <c r="L8" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R8" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" s="65" t="s">
+        <v>105</v>
+      </c>
       <c r="T8" s="56"/>
       <c r="U8" s="56"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="73"/>
-    </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="58"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="70"/>
+    </row>
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="51">
+        <v>8</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="G9" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="59">
+        <v>42832</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="59">
+        <v>42832</v>
+      </c>
       <c r="K9" s="58"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="73"/>
-    </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
+      <c r="L9" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R9" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="T9" s="56"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="70"/>
+    </row>
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="51">
+        <v>9</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="59">
+        <v>42832</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="59">
+        <v>42832</v>
+      </c>
+      <c r="K10" s="78"/>
+      <c r="L10" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R10" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="T10" s="89"/>
       <c r="U10" s="56"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="73"/>
-    </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="70"/>
+    </row>
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="51">
+        <v>10</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="59">
+        <v>42839</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="59">
+        <v>42839</v>
+      </c>
       <c r="K11" s="58"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
+      <c r="L11" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R11" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="T11" s="65"/>
       <c r="U11" s="56"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="73"/>
-    </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="70"/>
+    </row>
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A12" s="51">
+        <v>11</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="59">
+        <v>42839</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="59">
+        <v>42839</v>
+      </c>
       <c r="K12" s="58"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
+      <c r="L12" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R12" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65">
+        <v>10852</v>
+      </c>
       <c r="U12" s="56"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="73"/>
-    </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="70"/>
+    </row>
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="51">
+        <v>12</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="59">
+        <v>42839</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="59">
+        <v>42839</v>
+      </c>
       <c r="K13" s="58"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="56"/>
+      <c r="L13" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R13" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" s="65" t="s">
+        <v>126</v>
+      </c>
       <c r="T13" s="56"/>
       <c r="U13" s="56"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="73"/>
-    </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="56"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="70"/>
+    </row>
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A14" s="51">
+        <v>13</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="59">
+        <v>42839</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="59">
+        <v>42839</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R14" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" s="65" t="s">
+        <v>130</v>
+      </c>
       <c r="T14" s="56"/>
       <c r="U14" s="56"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="73"/>
-    </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="70"/>
+    </row>
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="51">
+        <v>14</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="59">
+        <v>42839</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="59">
+        <v>42839</v>
+      </c>
       <c r="K15" s="58"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="56"/>
+      <c r="L15" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R15" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" s="65" t="s">
+        <v>134</v>
+      </c>
       <c r="T15" s="56"/>
       <c r="U15" s="56"/>
       <c r="V15" s="56"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="73"/>
-    </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="70"/>
+    </row>
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A16" s="51">
+        <v>15</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="59">
+        <v>42839</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="59">
+        <v>42839</v>
+      </c>
       <c r="K16" s="58"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="56"/>
+      <c r="L16" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="P16" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R16" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" s="65" t="s">
+        <v>139</v>
+      </c>
       <c r="T16" s="56"/>
       <c r="U16" s="56"/>
       <c r="V16" s="56"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="73"/>
-    </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="56"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="70"/>
+    </row>
+    <row r="17" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A17" s="51">
+        <v>16</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="59">
+        <v>42839</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="59">
+        <v>42839</v>
+      </c>
+      <c r="K17" s="58"/>
+      <c r="L17" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="P17" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R17" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S17" s="65" t="s">
+        <v>142</v>
+      </c>
       <c r="T17" s="56"/>
       <c r="U17" s="56"/>
       <c r="V17" s="56"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="73"/>
-    </row>
-    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="70"/>
+    </row>
+    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="A18" s="51">
+        <v>17</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="59">
+        <v>42839</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="59">
+        <v>42839</v>
+      </c>
+      <c r="K18" s="58"/>
+      <c r="L18" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="P18" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R18" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S18" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="T18" s="65"/>
       <c r="U18" s="56"/>
       <c r="V18" s="56"/>
       <c r="W18" s="57"/>
     </row>
-    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
+    <row r="19" spans="1:24" ht="32" x14ac:dyDescent="0.15">
+      <c r="A19" s="51">
+        <v>18</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="59">
+        <v>42839</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="59">
+        <v>42839</v>
+      </c>
+      <c r="K19" s="58"/>
+      <c r="L19" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="N19" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="P19" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="59">
+        <v>42842</v>
+      </c>
+      <c r="R19" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="S19" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="T19" s="65"/>
       <c r="U19" s="56"/>
       <c r="V19" s="56"/>
       <c r="W19" s="57"/>
     </row>
-    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
+    <row r="20" spans="1:24" ht="128" x14ac:dyDescent="0.15">
+      <c r="A20" s="51">
+        <v>19</v>
+      </c>
+      <c r="B20" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="93">
+        <v>42841</v>
+      </c>
+      <c r="I20" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="93">
+        <v>42841</v>
+      </c>
+      <c r="K20" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="N20" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="P20" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="T20" s="65"/>
       <c r="U20" s="56"/>
       <c r="V20" s="56"/>
       <c r="W20" s="57"/>
     </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2139,9 +3365,9 @@
       <c r="T21" s="56"/>
       <c r="U21" s="56"/>
       <c r="V21" s="56"/>
-      <c r="W21" s="74"/>
-    </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W21" s="71"/>
+    </row>
+    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2164,9 +3390,9 @@
       <c r="T22" s="56"/>
       <c r="U22" s="56"/>
       <c r="V22" s="56"/>
-      <c r="W22" s="74"/>
-    </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W22" s="71"/>
+    </row>
+    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2189,9 +3415,9 @@
       <c r="T23" s="56"/>
       <c r="U23" s="56"/>
       <c r="V23" s="56"/>
-      <c r="W23" s="74"/>
-    </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W23" s="71"/>
+    </row>
+    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2210,13 +3436,13 @@
       <c r="P24" s="62"/>
       <c r="Q24" s="59"/>
       <c r="R24" s="62"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="76"/>
-    </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="73"/>
+    </row>
+    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2235,13 +3461,13 @@
       <c r="P25" s="62"/>
       <c r="Q25" s="59"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="76"/>
-    </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="73"/>
+    </row>
+    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2260,13 +3486,13 @@
       <c r="P26" s="62"/>
       <c r="Q26" s="59"/>
       <c r="R26" s="62"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="76"/>
-    </row>
-    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="73"/>
+    </row>
+    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2285,13 +3511,13 @@
       <c r="P27" s="62"/>
       <c r="Q27" s="59"/>
       <c r="R27" s="62"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="76"/>
-    </row>
-    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="73"/>
+    </row>
+    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2310,13 +3536,13 @@
       <c r="P28" s="62"/>
       <c r="Q28" s="59"/>
       <c r="R28" s="62"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="76"/>
-    </row>
-    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="73"/>
+    </row>
+    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2335,13 +3561,13 @@
       <c r="P29" s="62"/>
       <c r="Q29" s="59"/>
       <c r="R29" s="62"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
       <c r="W29" s="62"/>
     </row>
-    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2364,9 +3590,9 @@
       <c r="T30" s="56"/>
       <c r="U30" s="56"/>
       <c r="V30" s="56"/>
-      <c r="W30" s="74"/>
-    </row>
-    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W30" s="71"/>
+    </row>
+    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2389,9 +3615,9 @@
       <c r="T31" s="56"/>
       <c r="U31" s="56"/>
       <c r="V31" s="56"/>
-      <c r="W31" s="74"/>
-    </row>
-    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W31" s="71"/>
+    </row>
+    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2414,9 +3640,9 @@
       <c r="T32" s="56"/>
       <c r="U32" s="56"/>
       <c r="V32" s="56"/>
-      <c r="W32" s="74"/>
-    </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W32" s="71"/>
+    </row>
+    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2435,13 +3661,13 @@
       <c r="P33" s="62"/>
       <c r="Q33" s="59"/>
       <c r="R33" s="62"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="76"/>
-    </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="73"/>
+    </row>
+    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2464,9 +3690,9 @@
       <c r="T34" s="56"/>
       <c r="U34" s="56"/>
       <c r="V34" s="56"/>
-      <c r="W34" s="72"/>
-    </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W34" s="69"/>
+    </row>
+    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2489,9 +3715,9 @@
       <c r="T35" s="56"/>
       <c r="U35" s="56"/>
       <c r="V35" s="56"/>
-      <c r="W35" s="74"/>
-    </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W35" s="71"/>
+    </row>
+    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2514,9 +3740,9 @@
       <c r="T36" s="56"/>
       <c r="U36" s="56"/>
       <c r="V36" s="56"/>
-      <c r="W36" s="74"/>
-    </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W36" s="71"/>
+    </row>
+    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2539,9 +3765,9 @@
       <c r="T37" s="56"/>
       <c r="U37" s="56"/>
       <c r="V37" s="56"/>
-      <c r="W37" s="74"/>
-    </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W37" s="71"/>
+    </row>
+    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2564,9 +3790,9 @@
       <c r="T38" s="56"/>
       <c r="U38" s="56"/>
       <c r="V38" s="56"/>
-      <c r="W38" s="74"/>
-    </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W38" s="71"/>
+    </row>
+    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2589,9 +3815,9 @@
       <c r="T39" s="56"/>
       <c r="U39" s="56"/>
       <c r="V39" s="56"/>
-      <c r="W39" s="74"/>
-    </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W39" s="71"/>
+    </row>
+    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2614,9 +3840,9 @@
       <c r="T40" s="56"/>
       <c r="U40" s="56"/>
       <c r="V40" s="56"/>
-      <c r="W40" s="74"/>
-    </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W40" s="71"/>
+    </row>
+    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2639,9 +3865,9 @@
       <c r="T41" s="56"/>
       <c r="U41" s="56"/>
       <c r="V41" s="56"/>
-      <c r="W41" s="74"/>
-    </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W41" s="71"/>
+    </row>
+    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2664,9 +3890,9 @@
       <c r="T42" s="56"/>
       <c r="U42" s="56"/>
       <c r="V42" s="56"/>
-      <c r="W42" s="74"/>
-    </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W42" s="71"/>
+    </row>
+    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2689,9 +3915,9 @@
       <c r="T43" s="56"/>
       <c r="U43" s="56"/>
       <c r="V43" s="56"/>
-      <c r="W43" s="74"/>
-    </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W43" s="71"/>
+    </row>
+    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2714,9 +3940,9 @@
       <c r="T44" s="56"/>
       <c r="U44" s="56"/>
       <c r="V44" s="56"/>
-      <c r="W44" s="74"/>
-    </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="W44" s="71"/>
+    </row>
+    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2735,13 +3961,13 @@
       <c r="P45" s="62"/>
       <c r="Q45" s="59"/>
       <c r="R45" s="62"/>
-      <c r="S45" s="69"/>
-      <c r="T45" s="69"/>
-      <c r="U45" s="69"/>
-      <c r="V45" s="69"/>
-      <c r="W45" s="74"/>
-    </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S45" s="66"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="71"/>
+    </row>
+    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2760,13 +3986,13 @@
       <c r="P46" s="62"/>
       <c r="Q46" s="59"/>
       <c r="R46" s="62"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="69"/>
-      <c r="U46" s="69"/>
-      <c r="V46" s="69"/>
-      <c r="W46" s="74"/>
-    </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S46" s="66"/>
+      <c r="T46" s="66"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="66"/>
+      <c r="W46" s="71"/>
+    </row>
+    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2777,7 +4003,7 @@
       <c r="H47" s="59"/>
       <c r="I47" s="59"/>
       <c r="J47" s="59"/>
-      <c r="K47" s="64"/>
+      <c r="K47" s="63"/>
       <c r="L47" s="62"/>
       <c r="M47" s="62"/>
       <c r="N47" s="58"/>
@@ -2791,7 +4017,7 @@
       <c r="V47" s="56"/>
       <c r="W47" s="57"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2802,7 +4028,7 @@
       <c r="H48" s="59"/>
       <c r="I48" s="59"/>
       <c r="J48" s="59"/>
-      <c r="K48" s="64"/>
+      <c r="K48" s="63"/>
       <c r="L48" s="62"/>
       <c r="M48" s="62"/>
       <c r="N48" s="58"/>
@@ -2816,7 +4042,7 @@
       <c r="V48" s="56"/>
       <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2827,7 +4053,7 @@
       <c r="H49" s="59"/>
       <c r="I49" s="59"/>
       <c r="J49" s="59"/>
-      <c r="K49" s="64"/>
+      <c r="K49" s="63"/>
       <c r="L49" s="62"/>
       <c r="M49" s="62"/>
       <c r="N49" s="58"/>
@@ -2841,7 +4067,7 @@
       <c r="V49" s="56"/>
       <c r="W49" s="57"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -2852,7 +4078,7 @@
       <c r="H50" s="59"/>
       <c r="I50" s="59"/>
       <c r="J50" s="59"/>
-      <c r="K50" s="64"/>
+      <c r="K50" s="63"/>
       <c r="L50" s="62"/>
       <c r="M50" s="62"/>
       <c r="N50" s="58"/>
@@ -2866,7 +4092,7 @@
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -2877,7 +4103,7 @@
       <c r="H51" s="59"/>
       <c r="I51" s="59"/>
       <c r="J51" s="59"/>
-      <c r="K51" s="64"/>
+      <c r="K51" s="63"/>
       <c r="L51" s="62"/>
       <c r="M51" s="62"/>
       <c r="N51" s="58"/>
@@ -2891,7 +4117,7 @@
       <c r="V51" s="56"/>
       <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -2902,7 +4128,7 @@
       <c r="H52" s="59"/>
       <c r="I52" s="59"/>
       <c r="J52" s="59"/>
-      <c r="K52" s="64"/>
+      <c r="K52" s="63"/>
       <c r="L52" s="62"/>
       <c r="M52" s="62"/>
       <c r="N52" s="58"/>
@@ -2916,7 +4142,7 @@
       <c r="V52" s="56"/>
       <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -2927,7 +4153,7 @@
       <c r="H53" s="59"/>
       <c r="I53" s="59"/>
       <c r="J53" s="59"/>
-      <c r="K53" s="64"/>
+      <c r="K53" s="63"/>
       <c r="L53" s="62"/>
       <c r="M53" s="62"/>
       <c r="N53" s="58"/>
@@ -2941,7 +4167,7 @@
       <c r="V53" s="56"/>
       <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="56"/>
       <c r="B54" s="56"/>
       <c r="C54" s="56"/>
@@ -2952,7 +4178,7 @@
       <c r="H54" s="61"/>
       <c r="I54" s="56"/>
       <c r="J54" s="61"/>
-      <c r="K54" s="64"/>
+      <c r="K54" s="63"/>
       <c r="L54" s="56"/>
       <c r="M54" s="56"/>
       <c r="N54" s="58"/>
@@ -2966,7 +4192,7 @@
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -2977,7 +4203,7 @@
       <c r="H55" s="61"/>
       <c r="I55" s="56"/>
       <c r="J55" s="61"/>
-      <c r="K55" s="64"/>
+      <c r="K55" s="63"/>
       <c r="L55" s="56"/>
       <c r="M55" s="56"/>
       <c r="N55" s="58"/>
@@ -2991,7 +4217,7 @@
       <c r="V55" s="56"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -3002,7 +4228,7 @@
       <c r="H56" s="61"/>
       <c r="I56" s="56"/>
       <c r="J56" s="61"/>
-      <c r="K56" s="64"/>
+      <c r="K56" s="63"/>
       <c r="L56" s="56"/>
       <c r="M56" s="56"/>
       <c r="N56" s="58"/>
@@ -3016,7 +4242,7 @@
       <c r="V56" s="56"/>
       <c r="W56" s="57"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -3027,7 +4253,7 @@
       <c r="H57" s="61"/>
       <c r="I57" s="56"/>
       <c r="J57" s="61"/>
-      <c r="K57" s="64"/>
+      <c r="K57" s="63"/>
       <c r="L57" s="56"/>
       <c r="M57" s="56"/>
       <c r="N57" s="58"/>
@@ -3041,7 +4267,7 @@
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
@@ -3052,7 +4278,7 @@
       <c r="H58" s="61"/>
       <c r="I58" s="56"/>
       <c r="J58" s="61"/>
-      <c r="K58" s="64"/>
+      <c r="K58" s="63"/>
       <c r="L58" s="56"/>
       <c r="M58" s="56"/>
       <c r="N58" s="58"/>
@@ -3066,7 +4292,7 @@
       <c r="V58" s="56"/>
       <c r="W58" s="57"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
@@ -3077,7 +4303,7 @@
       <c r="H59" s="61"/>
       <c r="I59" s="56"/>
       <c r="J59" s="61"/>
-      <c r="K59" s="64"/>
+      <c r="K59" s="63"/>
       <c r="L59" s="56"/>
       <c r="M59" s="56"/>
       <c r="N59" s="58"/>
@@ -3091,7 +4317,7 @@
       <c r="V59" s="56"/>
       <c r="W59" s="57"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -3102,7 +4328,7 @@
       <c r="H60" s="61"/>
       <c r="I60" s="56"/>
       <c r="J60" s="61"/>
-      <c r="K60" s="64"/>
+      <c r="K60" s="63"/>
       <c r="L60" s="56"/>
       <c r="M60" s="56"/>
       <c r="N60" s="58"/>
@@ -3116,7 +4342,7 @@
       <c r="V60" s="56"/>
       <c r="W60" s="57"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -3127,7 +4353,7 @@
       <c r="H61" s="61"/>
       <c r="I61" s="56"/>
       <c r="J61" s="61"/>
-      <c r="K61" s="64"/>
+      <c r="K61" s="63"/>
       <c r="L61" s="56"/>
       <c r="M61" s="56"/>
       <c r="N61" s="58"/>
@@ -3141,7 +4367,7 @@
       <c r="V61" s="56"/>
       <c r="W61" s="57"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
@@ -3152,7 +4378,7 @@
       <c r="H62" s="61"/>
       <c r="I62" s="56"/>
       <c r="J62" s="61"/>
-      <c r="K62" s="64"/>
+      <c r="K62" s="63"/>
       <c r="L62" s="56"/>
       <c r="M62" s="56"/>
       <c r="N62" s="58"/>
@@ -3166,7 +4392,7 @@
       <c r="V62" s="56"/>
       <c r="W62" s="57"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
@@ -3177,7 +4403,7 @@
       <c r="H63" s="61"/>
       <c r="I63" s="56"/>
       <c r="J63" s="61"/>
-      <c r="K63" s="64"/>
+      <c r="K63" s="63"/>
       <c r="L63" s="56"/>
       <c r="M63" s="56"/>
       <c r="N63" s="58"/>
@@ -3191,7 +4417,7 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -3202,7 +4428,7 @@
       <c r="H64" s="61"/>
       <c r="I64" s="56"/>
       <c r="J64" s="61"/>
-      <c r="K64" s="64"/>
+      <c r="K64" s="63"/>
       <c r="L64" s="56"/>
       <c r="M64" s="56"/>
       <c r="N64" s="58"/>
@@ -3216,7 +4442,7 @@
       <c r="V64" s="56"/>
       <c r="W64" s="57"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -3227,7 +4453,7 @@
       <c r="H65" s="61"/>
       <c r="I65" s="56"/>
       <c r="J65" s="61"/>
-      <c r="K65" s="64"/>
+      <c r="K65" s="63"/>
       <c r="L65" s="56"/>
       <c r="M65" s="56"/>
       <c r="N65" s="58"/>
@@ -3241,7 +4467,7 @@
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -3252,7 +4478,7 @@
       <c r="H66" s="61"/>
       <c r="I66" s="56"/>
       <c r="J66" s="61"/>
-      <c r="K66" s="64"/>
+      <c r="K66" s="63"/>
       <c r="L66" s="56"/>
       <c r="M66" s="56"/>
       <c r="N66" s="58"/>
@@ -3266,7 +4492,7 @@
       <c r="V66" s="56"/>
       <c r="W66" s="57"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -3277,7 +4503,7 @@
       <c r="H67" s="61"/>
       <c r="I67" s="56"/>
       <c r="J67" s="61"/>
-      <c r="K67" s="64"/>
+      <c r="K67" s="63"/>
       <c r="L67" s="56"/>
       <c r="M67" s="56"/>
       <c r="N67" s="58"/>
@@ -3291,7 +4517,7 @@
       <c r="V67" s="56"/>
       <c r="W67" s="57"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -3302,7 +4528,7 @@
       <c r="H68" s="61"/>
       <c r="I68" s="56"/>
       <c r="J68" s="61"/>
-      <c r="K68" s="64"/>
+      <c r="K68" s="63"/>
       <c r="L68" s="56"/>
       <c r="M68" s="56"/>
       <c r="N68" s="58"/>
@@ -3316,7 +4542,7 @@
       <c r="V68" s="56"/>
       <c r="W68" s="57"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -3327,7 +4553,7 @@
       <c r="H69" s="61"/>
       <c r="I69" s="56"/>
       <c r="J69" s="61"/>
-      <c r="K69" s="64"/>
+      <c r="K69" s="63"/>
       <c r="L69" s="56"/>
       <c r="M69" s="56"/>
       <c r="N69" s="58"/>
@@ -3341,7 +4567,7 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -3352,7 +4578,7 @@
       <c r="H70" s="61"/>
       <c r="I70" s="56"/>
       <c r="J70" s="61"/>
-      <c r="K70" s="64"/>
+      <c r="K70" s="63"/>
       <c r="L70" s="56"/>
       <c r="M70" s="56"/>
       <c r="N70" s="58"/>
@@ -3366,7 +4592,7 @@
       <c r="V70" s="56"/>
       <c r="W70" s="57"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -3377,7 +4603,7 @@
       <c r="H71" s="61"/>
       <c r="I71" s="56"/>
       <c r="J71" s="61"/>
-      <c r="K71" s="64"/>
+      <c r="K71" s="63"/>
       <c r="L71" s="56"/>
       <c r="M71" s="56"/>
       <c r="N71" s="58"/>
@@ -3391,7 +4617,7 @@
       <c r="V71" s="56"/>
       <c r="W71" s="57"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -3402,7 +4628,7 @@
       <c r="H72" s="61"/>
       <c r="I72" s="56"/>
       <c r="J72" s="61"/>
-      <c r="K72" s="64"/>
+      <c r="K72" s="63"/>
       <c r="L72" s="56"/>
       <c r="M72" s="56"/>
       <c r="N72" s="58"/>
@@ -3416,7 +4642,7 @@
       <c r="V72" s="56"/>
       <c r="W72" s="57"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -3427,7 +4653,7 @@
       <c r="H73" s="61"/>
       <c r="I73" s="56"/>
       <c r="J73" s="61"/>
-      <c r="K73" s="64"/>
+      <c r="K73" s="63"/>
       <c r="L73" s="56"/>
       <c r="M73" s="56"/>
       <c r="N73" s="58"/>
@@ -3441,7 +4667,7 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
@@ -3452,7 +4678,7 @@
       <c r="H74" s="61"/>
       <c r="I74" s="56"/>
       <c r="J74" s="61"/>
-      <c r="K74" s="64"/>
+      <c r="K74" s="63"/>
       <c r="L74" s="56"/>
       <c r="M74" s="56"/>
       <c r="N74" s="58"/>
@@ -3466,7 +4692,7 @@
       <c r="V74" s="56"/>
       <c r="W74" s="57"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -3477,7 +4703,7 @@
       <c r="H75" s="61"/>
       <c r="I75" s="56"/>
       <c r="J75" s="61"/>
-      <c r="K75" s="64"/>
+      <c r="K75" s="63"/>
       <c r="L75" s="56"/>
       <c r="M75" s="56"/>
       <c r="N75" s="58"/>
@@ -3491,7 +4717,7 @@
       <c r="V75" s="56"/>
       <c r="W75" s="57"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -3502,7 +4728,7 @@
       <c r="H76" s="61"/>
       <c r="I76" s="56"/>
       <c r="J76" s="61"/>
-      <c r="K76" s="64"/>
+      <c r="K76" s="63"/>
       <c r="L76" s="56"/>
       <c r="M76" s="56"/>
       <c r="N76" s="58"/>
@@ -3516,7 +4742,7 @@
       <c r="V76" s="56"/>
       <c r="W76" s="57"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -3527,7 +4753,7 @@
       <c r="H77" s="61"/>
       <c r="I77" s="56"/>
       <c r="J77" s="61"/>
-      <c r="K77" s="64"/>
+      <c r="K77" s="63"/>
       <c r="L77" s="56"/>
       <c r="M77" s="56"/>
       <c r="N77" s="58"/>
@@ -3541,7 +4767,7 @@
       <c r="V77" s="56"/>
       <c r="W77" s="57"/>
     </row>
-    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -3552,7 +4778,7 @@
       <c r="H78" s="61"/>
       <c r="I78" s="56"/>
       <c r="J78" s="61"/>
-      <c r="K78" s="64"/>
+      <c r="K78" s="63"/>
       <c r="L78" s="56"/>
       <c r="M78" s="56"/>
       <c r="N78" s="58"/>
@@ -3566,7 +4792,7 @@
       <c r="V78" s="56"/>
       <c r="W78" s="57"/>
     </row>
-    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -3577,7 +4803,7 @@
       <c r="H79" s="61"/>
       <c r="I79" s="56"/>
       <c r="J79" s="61"/>
-      <c r="K79" s="64"/>
+      <c r="K79" s="63"/>
       <c r="L79" s="56"/>
       <c r="M79" s="56"/>
       <c r="N79" s="58"/>
@@ -3602,7 +4828,7 @@
       <c r="H80" s="61"/>
       <c r="I80" s="56"/>
       <c r="J80" s="61"/>
-      <c r="K80" s="64"/>
+      <c r="K80" s="63"/>
       <c r="L80" s="56"/>
       <c r="M80" s="56"/>
       <c r="N80" s="56"/>
@@ -3627,7 +4853,7 @@
       <c r="H81" s="61"/>
       <c r="I81" s="56"/>
       <c r="J81" s="61"/>
-      <c r="K81" s="64"/>
+      <c r="K81" s="63"/>
       <c r="L81" s="56"/>
       <c r="M81" s="56"/>
       <c r="N81" s="56"/>
@@ -3652,7 +4878,7 @@
       <c r="H82" s="61"/>
       <c r="I82" s="56"/>
       <c r="J82" s="61"/>
-      <c r="K82" s="64"/>
+      <c r="K82" s="63"/>
       <c r="L82" s="56"/>
       <c r="M82" s="56"/>
       <c r="N82" s="56"/>
@@ -3677,7 +4903,7 @@
       <c r="H83" s="61"/>
       <c r="I83" s="56"/>
       <c r="J83" s="61"/>
-      <c r="K83" s="64"/>
+      <c r="K83" s="63"/>
       <c r="L83" s="56"/>
       <c r="M83" s="56"/>
       <c r="N83" s="56"/>
@@ -3702,7 +4928,7 @@
       <c r="H84" s="61"/>
       <c r="I84" s="56"/>
       <c r="J84" s="61"/>
-      <c r="K84" s="64"/>
+      <c r="K84" s="63"/>
       <c r="L84" s="56"/>
       <c r="M84" s="56"/>
       <c r="N84" s="56"/>
@@ -3727,7 +4953,7 @@
       <c r="H85" s="61"/>
       <c r="I85" s="56"/>
       <c r="J85" s="61"/>
-      <c r="K85" s="64"/>
+      <c r="K85" s="63"/>
       <c r="L85" s="56"/>
       <c r="M85" s="56"/>
       <c r="N85" s="56"/>
@@ -3752,7 +4978,7 @@
       <c r="H86" s="61"/>
       <c r="I86" s="56"/>
       <c r="J86" s="61"/>
-      <c r="K86" s="64"/>
+      <c r="K86" s="63"/>
       <c r="L86" s="56"/>
       <c r="M86" s="56"/>
       <c r="N86" s="56"/>
@@ -3777,7 +5003,7 @@
       <c r="H87" s="61"/>
       <c r="I87" s="56"/>
       <c r="J87" s="61"/>
-      <c r="K87" s="64"/>
+      <c r="K87" s="63"/>
       <c r="L87" s="56"/>
       <c r="M87" s="56"/>
       <c r="N87" s="56"/>
@@ -3802,7 +5028,7 @@
       <c r="H88" s="61"/>
       <c r="I88" s="56"/>
       <c r="J88" s="61"/>
-      <c r="K88" s="64"/>
+      <c r="K88" s="63"/>
       <c r="L88" s="56"/>
       <c r="M88" s="56"/>
       <c r="N88" s="56"/>
@@ -3827,7 +5053,7 @@
       <c r="H89" s="61"/>
       <c r="I89" s="56"/>
       <c r="J89" s="61"/>
-      <c r="K89" s="64"/>
+      <c r="K89" s="63"/>
       <c r="L89" s="56"/>
       <c r="M89" s="56"/>
       <c r="N89" s="56"/>
@@ -3852,7 +5078,7 @@
       <c r="H90" s="61"/>
       <c r="I90" s="56"/>
       <c r="J90" s="61"/>
-      <c r="K90" s="64"/>
+      <c r="K90" s="63"/>
       <c r="L90" s="56"/>
       <c r="M90" s="56"/>
       <c r="N90" s="56"/>
@@ -3877,7 +5103,7 @@
       <c r="H91" s="61"/>
       <c r="I91" s="56"/>
       <c r="J91" s="61"/>
-      <c r="K91" s="64"/>
+      <c r="K91" s="63"/>
       <c r="L91" s="56"/>
       <c r="M91" s="56"/>
       <c r="N91" s="56"/>
@@ -3902,7 +5128,7 @@
       <c r="H92" s="61"/>
       <c r="I92" s="56"/>
       <c r="J92" s="61"/>
-      <c r="K92" s="64"/>
+      <c r="K92" s="63"/>
       <c r="L92" s="56"/>
       <c r="M92" s="56"/>
       <c r="N92" s="56"/>
@@ -3927,7 +5153,7 @@
       <c r="H93" s="61"/>
       <c r="I93" s="56"/>
       <c r="J93" s="61"/>
-      <c r="K93" s="64"/>
+      <c r="K93" s="63"/>
       <c r="L93" s="56"/>
       <c r="M93" s="56"/>
       <c r="N93" s="56"/>
@@ -3952,7 +5178,7 @@
       <c r="H94" s="61"/>
       <c r="I94" s="56"/>
       <c r="J94" s="61"/>
-      <c r="K94" s="64"/>
+      <c r="K94" s="63"/>
       <c r="L94" s="56"/>
       <c r="M94" s="56"/>
       <c r="N94" s="56"/>
@@ -3977,7 +5203,7 @@
       <c r="H95" s="61"/>
       <c r="I95" s="56"/>
       <c r="J95" s="61"/>
-      <c r="K95" s="64"/>
+      <c r="K95" s="63"/>
       <c r="L95" s="56"/>
       <c r="M95" s="56"/>
       <c r="N95" s="56"/>
@@ -4002,7 +5228,7 @@
       <c r="H96" s="61"/>
       <c r="I96" s="56"/>
       <c r="J96" s="61"/>
-      <c r="K96" s="64"/>
+      <c r="K96" s="63"/>
       <c r="L96" s="56"/>
       <c r="M96" s="56"/>
       <c r="N96" s="56"/>
@@ -4027,7 +5253,7 @@
       <c r="H97" s="61"/>
       <c r="I97" s="56"/>
       <c r="J97" s="61"/>
-      <c r="K97" s="64"/>
+      <c r="K97" s="63"/>
       <c r="L97" s="56"/>
       <c r="M97" s="56"/>
       <c r="N97" s="56"/>
@@ -4052,7 +5278,7 @@
       <c r="H98" s="61"/>
       <c r="I98" s="56"/>
       <c r="J98" s="61"/>
-      <c r="K98" s="64"/>
+      <c r="K98" s="63"/>
       <c r="L98" s="56"/>
       <c r="M98" s="56"/>
       <c r="N98" s="56"/>
@@ -4077,7 +5303,7 @@
       <c r="H99" s="61"/>
       <c r="I99" s="56"/>
       <c r="J99" s="61"/>
-      <c r="K99" s="64"/>
+      <c r="K99" s="63"/>
       <c r="L99" s="56"/>
       <c r="M99" s="56"/>
       <c r="N99" s="56"/>
@@ -4102,7 +5328,7 @@
       <c r="H100" s="61"/>
       <c r="I100" s="56"/>
       <c r="J100" s="61"/>
-      <c r="K100" s="64"/>
+      <c r="K100" s="63"/>
       <c r="L100" s="56"/>
       <c r="M100" s="56"/>
       <c r="N100" s="56"/>
@@ -4127,7 +5353,7 @@
       <c r="H101" s="61"/>
       <c r="I101" s="56"/>
       <c r="J101" s="61"/>
-      <c r="K101" s="64"/>
+      <c r="K101" s="63"/>
       <c r="L101" s="56"/>
       <c r="M101" s="56"/>
       <c r="N101" s="56"/>
@@ -4152,7 +5378,7 @@
       <c r="H102" s="61"/>
       <c r="I102" s="56"/>
       <c r="J102" s="61"/>
-      <c r="K102" s="64"/>
+      <c r="K102" s="63"/>
       <c r="L102" s="56"/>
       <c r="M102" s="56"/>
       <c r="N102" s="56"/>
@@ -4177,7 +5403,7 @@
       <c r="H103" s="61"/>
       <c r="I103" s="56"/>
       <c r="J103" s="61"/>
-      <c r="K103" s="64"/>
+      <c r="K103" s="63"/>
       <c r="L103" s="56"/>
       <c r="M103" s="56"/>
       <c r="N103" s="56"/>
@@ -4202,7 +5428,7 @@
       <c r="H104" s="61"/>
       <c r="I104" s="56"/>
       <c r="J104" s="61"/>
-      <c r="K104" s="64"/>
+      <c r="K104" s="63"/>
       <c r="L104" s="56"/>
       <c r="M104" s="56"/>
       <c r="N104" s="56"/>
@@ -4227,7 +5453,7 @@
       <c r="H105" s="61"/>
       <c r="I105" s="56"/>
       <c r="J105" s="61"/>
-      <c r="K105" s="64"/>
+      <c r="K105" s="63"/>
       <c r="L105" s="56"/>
       <c r="M105" s="56"/>
       <c r="N105" s="56"/>
@@ -4252,7 +5478,7 @@
       <c r="H106" s="61"/>
       <c r="I106" s="56"/>
       <c r="J106" s="61"/>
-      <c r="K106" s="64"/>
+      <c r="K106" s="63"/>
       <c r="L106" s="56"/>
       <c r="M106" s="56"/>
       <c r="N106" s="56"/>
@@ -4277,7 +5503,7 @@
       <c r="H107" s="61"/>
       <c r="I107" s="56"/>
       <c r="J107" s="61"/>
-      <c r="K107" s="64"/>
+      <c r="K107" s="63"/>
       <c r="L107" s="56"/>
       <c r="M107" s="56"/>
       <c r="N107" s="56"/>
@@ -4302,7 +5528,7 @@
       <c r="H108" s="61"/>
       <c r="I108" s="56"/>
       <c r="J108" s="61"/>
-      <c r="K108" s="64"/>
+      <c r="K108" s="63"/>
       <c r="L108" s="56"/>
       <c r="M108" s="56"/>
       <c r="N108" s="56"/>
@@ -4327,7 +5553,7 @@
       <c r="H109" s="61"/>
       <c r="I109" s="56"/>
       <c r="J109" s="61"/>
-      <c r="K109" s="64"/>
+      <c r="K109" s="63"/>
       <c r="L109" s="56"/>
       <c r="M109" s="56"/>
       <c r="N109" s="56"/>
@@ -4352,7 +5578,7 @@
       <c r="H110" s="61"/>
       <c r="I110" s="56"/>
       <c r="J110" s="61"/>
-      <c r="K110" s="64"/>
+      <c r="K110" s="63"/>
       <c r="L110" s="56"/>
       <c r="M110" s="56"/>
       <c r="N110" s="56"/>
@@ -4377,7 +5603,7 @@
       <c r="H111" s="61"/>
       <c r="I111" s="56"/>
       <c r="J111" s="61"/>
-      <c r="K111" s="64"/>
+      <c r="K111" s="63"/>
       <c r="L111" s="56"/>
       <c r="M111" s="56"/>
       <c r="N111" s="56"/>
@@ -4402,7 +5628,7 @@
       <c r="H112" s="61"/>
       <c r="I112" s="56"/>
       <c r="J112" s="61"/>
-      <c r="K112" s="64"/>
+      <c r="K112" s="63"/>
       <c r="L112" s="56"/>
       <c r="M112" s="56"/>
       <c r="N112" s="56"/>
@@ -4427,7 +5653,7 @@
       <c r="H113" s="61"/>
       <c r="I113" s="56"/>
       <c r="J113" s="61"/>
-      <c r="K113" s="64"/>
+      <c r="K113" s="63"/>
       <c r="L113" s="56"/>
       <c r="M113" s="56"/>
       <c r="N113" s="56"/>
@@ -4452,7 +5678,7 @@
       <c r="H114" s="61"/>
       <c r="I114" s="56"/>
       <c r="J114" s="61"/>
-      <c r="K114" s="64"/>
+      <c r="K114" s="63"/>
       <c r="L114" s="56"/>
       <c r="M114" s="56"/>
       <c r="N114" s="56"/>
@@ -4477,7 +5703,7 @@
       <c r="H115" s="61"/>
       <c r="I115" s="56"/>
       <c r="J115" s="61"/>
-      <c r="K115" s="64"/>
+      <c r="K115" s="63"/>
       <c r="L115" s="56"/>
       <c r="M115" s="56"/>
       <c r="N115" s="56"/>
@@ -4502,7 +5728,7 @@
       <c r="H116" s="61"/>
       <c r="I116" s="56"/>
       <c r="J116" s="61"/>
-      <c r="K116" s="64"/>
+      <c r="K116" s="63"/>
       <c r="L116" s="56"/>
       <c r="M116" s="56"/>
       <c r="N116" s="56"/>
@@ -4527,7 +5753,7 @@
       <c r="H117" s="61"/>
       <c r="I117" s="56"/>
       <c r="J117" s="61"/>
-      <c r="K117" s="64"/>
+      <c r="K117" s="63"/>
       <c r="L117" s="56"/>
       <c r="M117" s="56"/>
       <c r="N117" s="56"/>
@@ -4552,7 +5778,7 @@
       <c r="H118" s="61"/>
       <c r="I118" s="56"/>
       <c r="J118" s="61"/>
-      <c r="K118" s="64"/>
+      <c r="K118" s="63"/>
       <c r="L118" s="56"/>
       <c r="M118" s="56"/>
       <c r="N118" s="56"/>
@@ -4577,7 +5803,7 @@
       <c r="H119" s="61"/>
       <c r="I119" s="56"/>
       <c r="J119" s="61"/>
-      <c r="K119" s="64"/>
+      <c r="K119" s="63"/>
       <c r="L119" s="56"/>
       <c r="M119" s="56"/>
       <c r="N119" s="56"/>
@@ -4602,7 +5828,7 @@
       <c r="H120" s="61"/>
       <c r="I120" s="56"/>
       <c r="J120" s="61"/>
-      <c r="K120" s="64"/>
+      <c r="K120" s="63"/>
       <c r="L120" s="56"/>
       <c r="M120" s="56"/>
       <c r="N120" s="56"/>
@@ -4627,7 +5853,7 @@
       <c r="H121" s="61"/>
       <c r="I121" s="56"/>
       <c r="J121" s="61"/>
-      <c r="K121" s="64"/>
+      <c r="K121" s="63"/>
       <c r="L121" s="56"/>
       <c r="M121" s="56"/>
       <c r="N121" s="56"/>
@@ -4652,7 +5878,7 @@
       <c r="H122" s="61"/>
       <c r="I122" s="56"/>
       <c r="J122" s="61"/>
-      <c r="K122" s="64"/>
+      <c r="K122" s="63"/>
       <c r="L122" s="56"/>
       <c r="M122" s="56"/>
       <c r="N122" s="56"/>
@@ -4677,7 +5903,7 @@
       <c r="H123" s="61"/>
       <c r="I123" s="56"/>
       <c r="J123" s="61"/>
-      <c r="K123" s="64"/>
+      <c r="K123" s="63"/>
       <c r="L123" s="56"/>
       <c r="M123" s="56"/>
       <c r="N123" s="56"/>
@@ -4702,7 +5928,7 @@
       <c r="H124" s="61"/>
       <c r="I124" s="56"/>
       <c r="J124" s="61"/>
-      <c r="K124" s="64"/>
+      <c r="K124" s="63"/>
       <c r="L124" s="56"/>
       <c r="M124" s="56"/>
       <c r="N124" s="56"/>
@@ -4727,7 +5953,7 @@
       <c r="H125" s="61"/>
       <c r="I125" s="56"/>
       <c r="J125" s="61"/>
-      <c r="K125" s="64"/>
+      <c r="K125" s="63"/>
       <c r="L125" s="56"/>
       <c r="M125" s="56"/>
       <c r="N125" s="56"/>
@@ -4752,7 +5978,7 @@
       <c r="H126" s="61"/>
       <c r="I126" s="56"/>
       <c r="J126" s="61"/>
-      <c r="K126" s="64"/>
+      <c r="K126" s="63"/>
       <c r="L126" s="56"/>
       <c r="M126" s="56"/>
       <c r="N126" s="56"/>
@@ -4777,7 +6003,7 @@
       <c r="H127" s="61"/>
       <c r="I127" s="56"/>
       <c r="J127" s="61"/>
-      <c r="K127" s="64"/>
+      <c r="K127" s="63"/>
       <c r="L127" s="56"/>
       <c r="M127" s="56"/>
       <c r="N127" s="56"/>
@@ -4802,7 +6028,7 @@
       <c r="H128" s="61"/>
       <c r="I128" s="56"/>
       <c r="J128" s="61"/>
-      <c r="K128" s="64"/>
+      <c r="K128" s="63"/>
       <c r="L128" s="56"/>
       <c r="M128" s="56"/>
       <c r="N128" s="56"/>
@@ -4827,7 +6053,7 @@
       <c r="H129" s="61"/>
       <c r="I129" s="56"/>
       <c r="J129" s="61"/>
-      <c r="K129" s="64"/>
+      <c r="K129" s="63"/>
       <c r="L129" s="56"/>
       <c r="M129" s="56"/>
       <c r="N129" s="56"/>
@@ -4852,7 +6078,7 @@
       <c r="H130" s="61"/>
       <c r="I130" s="56"/>
       <c r="J130" s="61"/>
-      <c r="K130" s="64"/>
+      <c r="K130" s="63"/>
       <c r="L130" s="56"/>
       <c r="M130" s="56"/>
       <c r="N130" s="56"/>
@@ -4877,7 +6103,7 @@
       <c r="H131" s="61"/>
       <c r="I131" s="56"/>
       <c r="J131" s="61"/>
-      <c r="K131" s="64"/>
+      <c r="K131" s="63"/>
       <c r="L131" s="56"/>
       <c r="M131" s="56"/>
       <c r="N131" s="56"/>
@@ -4902,7 +6128,7 @@
       <c r="H132" s="61"/>
       <c r="I132" s="56"/>
       <c r="J132" s="61"/>
-      <c r="K132" s="64"/>
+      <c r="K132" s="63"/>
       <c r="L132" s="56"/>
       <c r="M132" s="56"/>
       <c r="N132" s="56"/>
@@ -4927,7 +6153,7 @@
       <c r="H133" s="61"/>
       <c r="I133" s="56"/>
       <c r="J133" s="61"/>
-      <c r="K133" s="64"/>
+      <c r="K133" s="63"/>
       <c r="L133" s="56"/>
       <c r="M133" s="56"/>
       <c r="N133" s="56"/>
@@ -4952,7 +6178,7 @@
       <c r="H134" s="61"/>
       <c r="I134" s="56"/>
       <c r="J134" s="61"/>
-      <c r="K134" s="64"/>
+      <c r="K134" s="63"/>
       <c r="L134" s="56"/>
       <c r="M134" s="56"/>
       <c r="N134" s="56"/>
@@ -4977,7 +6203,7 @@
       <c r="H135" s="61"/>
       <c r="I135" s="56"/>
       <c r="J135" s="61"/>
-      <c r="K135" s="64"/>
+      <c r="K135" s="63"/>
       <c r="L135" s="56"/>
       <c r="M135" s="56"/>
       <c r="N135" s="56"/>
@@ -5002,7 +6228,7 @@
       <c r="H136" s="61"/>
       <c r="I136" s="56"/>
       <c r="J136" s="61"/>
-      <c r="K136" s="64"/>
+      <c r="K136" s="63"/>
       <c r="L136" s="56"/>
       <c r="M136" s="56"/>
       <c r="N136" s="56"/>
@@ -5023,7 +6249,7 @@
       <c r="H137" s="61"/>
       <c r="I137" s="56"/>
       <c r="J137" s="61"/>
-      <c r="K137" s="64"/>
+      <c r="K137" s="63"/>
       <c r="L137" s="56"/>
       <c r="M137" s="56"/>
       <c r="N137" s="56"/>
@@ -5044,7 +6270,7 @@
       <c r="H138" s="61"/>
       <c r="I138" s="56"/>
       <c r="J138" s="61"/>
-      <c r="K138" s="64"/>
+      <c r="K138" s="63"/>
       <c r="L138" s="56"/>
       <c r="M138" s="56"/>
       <c r="N138" s="56"/>
@@ -5065,7 +6291,7 @@
       <c r="H139" s="61"/>
       <c r="I139" s="56"/>
       <c r="J139" s="61"/>
-      <c r="K139" s="64"/>
+      <c r="K139" s="63"/>
       <c r="L139" s="56"/>
       <c r="M139" s="56"/>
       <c r="N139" s="56"/>
@@ -5086,7 +6312,7 @@
       <c r="H140" s="61"/>
       <c r="I140" s="56"/>
       <c r="J140" s="61"/>
-      <c r="K140" s="64"/>
+      <c r="K140" s="63"/>
       <c r="L140" s="56"/>
       <c r="M140" s="56"/>
       <c r="N140" s="56"/>
@@ -5107,7 +6333,7 @@
       <c r="H141" s="61"/>
       <c r="I141" s="56"/>
       <c r="J141" s="61"/>
-      <c r="K141" s="64"/>
+      <c r="K141" s="63"/>
       <c r="L141" s="56"/>
       <c r="M141" s="56"/>
       <c r="N141" s="56"/>
@@ -5128,7 +6354,7 @@
       <c r="H142" s="61"/>
       <c r="I142" s="56"/>
       <c r="J142" s="61"/>
-      <c r="K142" s="64"/>
+      <c r="K142" s="63"/>
       <c r="L142" s="56"/>
       <c r="M142" s="56"/>
       <c r="N142" s="56"/>
@@ -5149,7 +6375,7 @@
       <c r="H143" s="61"/>
       <c r="I143" s="56"/>
       <c r="J143" s="61"/>
-      <c r="K143" s="64"/>
+      <c r="K143" s="63"/>
       <c r="L143" s="56"/>
       <c r="M143" s="56"/>
       <c r="N143" s="56"/>
@@ -5170,7 +6396,7 @@
       <c r="H144" s="61"/>
       <c r="I144" s="56"/>
       <c r="J144" s="61"/>
-      <c r="K144" s="64"/>
+      <c r="K144" s="63"/>
       <c r="L144" s="56"/>
       <c r="M144" s="56"/>
       <c r="N144" s="56"/>
@@ -5191,7 +6417,7 @@
       <c r="H145" s="61"/>
       <c r="I145" s="56"/>
       <c r="J145" s="61"/>
-      <c r="K145" s="64"/>
+      <c r="K145" s="63"/>
       <c r="L145" s="56"/>
       <c r="M145" s="56"/>
       <c r="N145" s="56"/>
@@ -5212,7 +6438,7 @@
       <c r="H146" s="61"/>
       <c r="I146" s="56"/>
       <c r="J146" s="61"/>
-      <c r="K146" s="64"/>
+      <c r="K146" s="63"/>
       <c r="L146" s="56"/>
       <c r="M146" s="56"/>
       <c r="N146" s="56"/>
@@ -5233,7 +6459,7 @@
       <c r="H147" s="61"/>
       <c r="I147" s="56"/>
       <c r="J147" s="61"/>
-      <c r="K147" s="64"/>
+      <c r="K147" s="63"/>
       <c r="L147" s="56"/>
       <c r="M147" s="56"/>
       <c r="N147" s="56"/>
@@ -5254,7 +6480,7 @@
       <c r="H148" s="61"/>
       <c r="I148" s="56"/>
       <c r="J148" s="61"/>
-      <c r="K148" s="64"/>
+      <c r="K148" s="63"/>
       <c r="L148" s="56"/>
       <c r="M148" s="56"/>
       <c r="N148" s="56"/>
@@ -5275,7 +6501,7 @@
       <c r="H149" s="61"/>
       <c r="I149" s="56"/>
       <c r="J149" s="61"/>
-      <c r="K149" s="64"/>
+      <c r="K149" s="63"/>
       <c r="L149" s="56"/>
       <c r="M149" s="56"/>
       <c r="N149" s="56"/>
@@ -5296,7 +6522,7 @@
       <c r="H150" s="61"/>
       <c r="I150" s="56"/>
       <c r="J150" s="61"/>
-      <c r="K150" s="64"/>
+      <c r="K150" s="63"/>
       <c r="L150" s="56"/>
       <c r="M150" s="56"/>
       <c r="N150" s="56"/>
@@ -5317,7 +6543,7 @@
       <c r="H151" s="61"/>
       <c r="I151" s="56"/>
       <c r="J151" s="61"/>
-      <c r="K151" s="64"/>
+      <c r="K151" s="63"/>
       <c r="L151" s="56"/>
       <c r="M151" s="56"/>
       <c r="N151" s="56"/>
@@ -5338,7 +6564,7 @@
       <c r="H152" s="61"/>
       <c r="I152" s="56"/>
       <c r="J152" s="61"/>
-      <c r="K152" s="64"/>
+      <c r="K152" s="63"/>
       <c r="L152" s="56"/>
       <c r="M152" s="56"/>
       <c r="N152" s="56"/>
@@ -5359,7 +6585,7 @@
       <c r="H153" s="61"/>
       <c r="I153" s="56"/>
       <c r="J153" s="61"/>
-      <c r="K153" s="64"/>
+      <c r="K153" s="63"/>
       <c r="L153" s="56"/>
       <c r="M153" s="56"/>
       <c r="N153" s="56"/>
@@ -5380,7 +6606,7 @@
       <c r="H154" s="61"/>
       <c r="I154" s="56"/>
       <c r="J154" s="61"/>
-      <c r="K154" s="64"/>
+      <c r="K154" s="63"/>
       <c r="L154" s="56"/>
       <c r="M154" s="56"/>
       <c r="N154" s="56"/>
@@ -5401,7 +6627,7 @@
       <c r="H155" s="61"/>
       <c r="I155" s="56"/>
       <c r="J155" s="61"/>
-      <c r="K155" s="64"/>
+      <c r="K155" s="63"/>
       <c r="L155" s="56"/>
       <c r="M155" s="56"/>
       <c r="N155" s="56"/>
@@ -5422,7 +6648,7 @@
       <c r="H156" s="61"/>
       <c r="I156" s="56"/>
       <c r="J156" s="61"/>
-      <c r="K156" s="64"/>
+      <c r="K156" s="63"/>
       <c r="L156" s="56"/>
       <c r="M156" s="56"/>
       <c r="N156" s="56"/>
@@ -5443,7 +6669,7 @@
       <c r="H157" s="61"/>
       <c r="I157" s="56"/>
       <c r="J157" s="61"/>
-      <c r="K157" s="64"/>
+      <c r="K157" s="63"/>
       <c r="L157" s="56"/>
       <c r="M157" s="56"/>
       <c r="N157" s="56"/>
@@ -5464,7 +6690,7 @@
       <c r="H158" s="61"/>
       <c r="I158" s="56"/>
       <c r="J158" s="61"/>
-      <c r="K158" s="64"/>
+      <c r="K158" s="63"/>
       <c r="L158" s="56"/>
       <c r="M158" s="56"/>
       <c r="N158" s="56"/>
@@ -5485,7 +6711,7 @@
       <c r="H159" s="61"/>
       <c r="I159" s="56"/>
       <c r="J159" s="61"/>
-      <c r="K159" s="64"/>
+      <c r="K159" s="63"/>
       <c r="L159" s="56"/>
       <c r="M159" s="56"/>
       <c r="N159" s="56"/>
@@ -5506,7 +6732,7 @@
       <c r="H160" s="61"/>
       <c r="I160" s="56"/>
       <c r="J160" s="61"/>
-      <c r="K160" s="64"/>
+      <c r="K160" s="63"/>
       <c r="L160" s="56"/>
       <c r="M160" s="56"/>
       <c r="N160" s="56"/>
@@ -5527,7 +6753,7 @@
       <c r="H161" s="61"/>
       <c r="I161" s="56"/>
       <c r="J161" s="61"/>
-      <c r="K161" s="64"/>
+      <c r="K161" s="63"/>
       <c r="L161" s="56"/>
       <c r="M161" s="56"/>
       <c r="N161" s="56"/>
@@ -5548,7 +6774,7 @@
       <c r="H162" s="61"/>
       <c r="I162" s="56"/>
       <c r="J162" s="61"/>
-      <c r="K162" s="64"/>
+      <c r="K162" s="63"/>
       <c r="L162" s="56"/>
       <c r="M162" s="56"/>
       <c r="N162" s="56"/>
@@ -5569,7 +6795,7 @@
       <c r="H163" s="61"/>
       <c r="I163" s="56"/>
       <c r="J163" s="61"/>
-      <c r="K163" s="64"/>
+      <c r="K163" s="63"/>
       <c r="L163" s="56"/>
       <c r="M163" s="56"/>
       <c r="N163" s="56"/>
@@ -5590,7 +6816,7 @@
       <c r="H164" s="61"/>
       <c r="I164" s="56"/>
       <c r="J164" s="61"/>
-      <c r="K164" s="64"/>
+      <c r="K164" s="63"/>
       <c r="L164" s="56"/>
       <c r="M164" s="56"/>
       <c r="N164" s="56"/>
@@ -5611,7 +6837,7 @@
       <c r="H165" s="61"/>
       <c r="I165" s="56"/>
       <c r="J165" s="61"/>
-      <c r="K165" s="64"/>
+      <c r="K165" s="63"/>
       <c r="L165" s="56"/>
       <c r="M165" s="56"/>
       <c r="N165" s="56"/>
@@ -5632,7 +6858,7 @@
       <c r="H166" s="61"/>
       <c r="I166" s="56"/>
       <c r="J166" s="61"/>
-      <c r="K166" s="64"/>
+      <c r="K166" s="63"/>
       <c r="L166" s="56"/>
       <c r="M166" s="56"/>
       <c r="N166" s="56"/>
@@ -5653,7 +6879,7 @@
       <c r="H167" s="61"/>
       <c r="I167" s="56"/>
       <c r="J167" s="61"/>
-      <c r="K167" s="64"/>
+      <c r="K167" s="63"/>
       <c r="L167" s="56"/>
       <c r="M167" s="56"/>
       <c r="N167" s="56"/>
@@ -5674,7 +6900,7 @@
       <c r="H168" s="61"/>
       <c r="I168" s="56"/>
       <c r="J168" s="61"/>
-      <c r="K168" s="64"/>
+      <c r="K168" s="63"/>
       <c r="L168" s="56"/>
       <c r="M168" s="56"/>
       <c r="N168" s="56"/>
@@ -5695,7 +6921,7 @@
       <c r="H169" s="61"/>
       <c r="I169" s="56"/>
       <c r="J169" s="61"/>
-      <c r="K169" s="64"/>
+      <c r="K169" s="63"/>
       <c r="L169" s="56"/>
       <c r="M169" s="56"/>
       <c r="N169" s="56"/>
@@ -5716,7 +6942,7 @@
       <c r="H170" s="61"/>
       <c r="I170" s="56"/>
       <c r="J170" s="61"/>
-      <c r="K170" s="64"/>
+      <c r="K170" s="63"/>
       <c r="L170" s="56"/>
       <c r="M170" s="56"/>
       <c r="N170" s="56"/>
@@ -5750,13 +6976,18 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 V1:V1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1" display="10461"/>
     <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S5" r:id="rId3" display="http://192.168.60.204/browse/MGYFZZ-212"/>
+    <hyperlink ref="S6" r:id="rId4" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-431"/>
+    <hyperlink ref="S14" r:id="rId5"/>
+    <hyperlink ref="S18" r:id="rId6"/>
+    <hyperlink ref="S19" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5771,24 +7002,24 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="44.375" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.875" customWidth="1"/>
+    <col min="13" max="13" width="54.83203125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="31.125" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -5921,34 +7152,34 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="A1" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -5983,9 +7214,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5996,9 +7227,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6009,9 +7240,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6022,9 +7253,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6035,9 +7266,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6048,9 +7279,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6061,9 +7292,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6074,9 +7305,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6087,7 +7318,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6118,57 +7349,57 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6209,22 +7440,407 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A4" s="101">
+        <v>1</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="101" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="107"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="109"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="111"/>
+    </row>
+    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="109"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="111"/>
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="109"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="111"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="109"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="111"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="109"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="111"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="109"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="111"/>
+    </row>
+    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="97" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="110"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="112"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="F4:F11"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="I4:I11"/>
+    <mergeCell ref="J4:J11"/>
+    <mergeCell ref="K4:K11"/>
+    <mergeCell ref="L4:L11"/>
+    <mergeCell ref="M4:M11"/>
+  </mergeCells>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="160" x14ac:dyDescent="0.15">
+      <c r="A4" s="113">
+        <v>1</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="115" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="113" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="115"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6239,7 +7855,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6254,7 +7870,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6269,7 +7885,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6284,7 +7900,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6299,7 +7915,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6314,7 +7930,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6329,7 +7945,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6344,7 +7960,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6359,7 +7975,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6374,7 +7990,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6389,321 +8005,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6746,57 +8048,57 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6837,22 +8139,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="160" x14ac:dyDescent="0.15">
+      <c r="A4" s="113">
+        <v>1</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="115" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" s="115"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6867,7 +8193,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6882,7 +8208,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6897,7 +8223,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6912,7 +8238,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6927,7 +8253,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6942,7 +8268,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6957,7 +8283,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6972,7 +8298,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6987,7 +8313,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7002,7 +8328,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7017,7 +8343,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7059,60 +8385,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7153,7 +8479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7168,7 +8494,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7183,7 +8509,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7198,7 +8524,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7213,7 +8539,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7228,7 +8554,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7243,7 +8569,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7258,7 +8584,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7273,7 +8599,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7288,7 +8614,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7303,7 +8629,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7318,7 +8644,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7333,7 +8659,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7379,15 +8705,15 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9.xlsx
+++ b/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="778" activeTab="6"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.9 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="203">
   <si>
     <t>No</t>
   </si>
@@ -331,93 +331,10 @@
     <t>2017/0419</t>
   </si>
   <si>
-    <t>紧急</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>去掉多余字段</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>茅寰寰</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪维玉</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>MGYFZZ-212</t>
   </si>
   <si>
-    <t>官网微官网显示分期租金</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏玉军、朱彤、李明</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>JRYF-431</t>
-  </si>
-  <si>
-    <r>
-      <t>租客A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PP月付</t>
-    </r>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙周麟、吕崇新、苏玉军</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇月付转化漏斗列表</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚海强</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>JRYXBB-24</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇月付转化率图线</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>JRYF-435</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请月付时上传资料的图片压缩</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>裔玲玲</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>王云飞</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>JRYXBB-28</t>
-    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>紧急</t>
@@ -815,6 +732,136 @@
   </si>
   <si>
     <t>沈城</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>YF-16</t>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客申请资料去掉多余字段</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterembed、renterembed-fe</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网微官网显示分期租金</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterPC、renterAPP</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军、朱彤、李明</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>租客A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PP月付</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterAPP</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟、吕崇新、苏玉军</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>王峥嵘、纪维玉</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇月付转化漏斗列表</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs、tasktracker</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚海强</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYXBB-24</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇月付转化率图线</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs、tasktracker</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚海强</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYF-435</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请月付时上传资料的图片压缩</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterembed</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYXBB-28</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1601,6 +1648,51 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1628,42 +1720,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1682,31 +1738,22 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2085,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2370,7 +2417,7 @@
       <c r="W4" s="79"/>
       <c r="X4" s="70"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="51">
         <v>4</v>
       </c>
@@ -2378,15 +2425,17 @@
         <v>68</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="58" t="s">
+        <v>176</v>
+      </c>
       <c r="G5" s="58" t="s">
         <v>73</v>
       </c>
@@ -2401,16 +2450,16 @@
       </c>
       <c r="K5" s="58"/>
       <c r="L5" s="76" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="M5" s="58" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="N5" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O5" s="58" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="P5" s="76" t="s">
         <v>78</v>
@@ -2422,7 +2471,7 @@
         <v>79</v>
       </c>
       <c r="S5" s="75" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="T5" s="65"/>
       <c r="U5" s="56"/>
@@ -2438,15 +2487,17 @@
         <v>68</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="58"/>
+      <c r="F6" s="58" t="s">
+        <v>181</v>
+      </c>
       <c r="G6" s="58" t="s">
         <v>73</v>
       </c>
@@ -2461,16 +2512,16 @@
       </c>
       <c r="K6" s="58"/>
       <c r="L6" s="76" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="M6" s="58" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="N6" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="58" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="P6" s="76" t="s">
         <v>78</v>
@@ -2482,7 +2533,7 @@
         <v>79</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="T6" s="65"/>
       <c r="U6" s="56"/>
@@ -2490,7 +2541,7 @@
       <c r="W6" s="71"/>
       <c r="X6" s="70"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="51">
         <v>6</v>
       </c>
@@ -2498,15 +2549,17 @@
         <v>68</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="58" t="s">
+        <v>184</v>
+      </c>
       <c r="G7" s="58" t="s">
         <v>73</v>
       </c>
@@ -2521,15 +2574,17 @@
       </c>
       <c r="K7" s="58"/>
       <c r="L7" s="76" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="M7" s="58" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="N7" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="58"/>
+      <c r="O7" s="58" t="s">
+        <v>186</v>
+      </c>
       <c r="P7" s="76" t="s">
         <v>78</v>
       </c>
@@ -2538,6 +2593,9 @@
       </c>
       <c r="R7" s="76" t="s">
         <v>79</v>
+      </c>
+      <c r="S7" s="75" t="s">
+        <v>173</v>
       </c>
       <c r="T7" s="56"/>
       <c r="U7" s="56"/>
@@ -2553,15 +2611,17 @@
         <v>68</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="E8" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="58" t="s">
+        <v>188</v>
+      </c>
       <c r="G8" s="58" t="s">
         <v>73</v>
       </c>
@@ -2576,16 +2636,16 @@
       </c>
       <c r="K8" s="58"/>
       <c r="L8" s="76" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="M8" s="58" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="N8" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O8" s="58" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="P8" s="76" t="s">
         <v>78</v>
@@ -2597,7 +2657,7 @@
         <v>79</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="T8" s="56"/>
       <c r="U8" s="56"/>
@@ -2613,15 +2673,17 @@
         <v>68</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="58" t="s">
+        <v>193</v>
+      </c>
       <c r="G9" s="58" t="s">
         <v>73</v>
       </c>
@@ -2636,16 +2698,16 @@
       </c>
       <c r="K9" s="58"/>
       <c r="L9" s="76" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="M9" s="58" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="N9" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O9" s="58" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="P9" s="76" t="s">
         <v>78</v>
@@ -2657,7 +2719,7 @@
         <v>79</v>
       </c>
       <c r="S9" s="65" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="T9" s="56"/>
       <c r="U9" s="66"/>
@@ -2673,15 +2735,17 @@
         <v>68</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="78"/>
+      <c r="F10" s="78" t="s">
+        <v>199</v>
+      </c>
       <c r="G10" s="78" t="s">
         <v>73</v>
       </c>
@@ -2696,16 +2760,16 @@
       </c>
       <c r="K10" s="78"/>
       <c r="L10" s="76" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="M10" s="58" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="N10" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O10" s="78" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="P10" s="76" t="s">
         <v>78</v>
@@ -2716,10 +2780,10 @@
       <c r="R10" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="T10" s="89"/>
+      <c r="S10" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="T10" s="80"/>
       <c r="U10" s="56"/>
       <c r="V10" s="64"/>
       <c r="W10" s="71"/>
@@ -2733,16 +2797,16 @@
         <v>68</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>73</v>
@@ -2758,16 +2822,16 @@
       </c>
       <c r="K11" s="58"/>
       <c r="L11" s="76" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="M11" s="58" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="N11" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O11" s="58" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="P11" s="76" t="s">
         <v>78</v>
@@ -2779,7 +2843,7 @@
         <v>79</v>
       </c>
       <c r="S11" s="65" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="T11" s="65"/>
       <c r="U11" s="56"/>
@@ -2795,16 +2859,16 @@
         <v>68</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>73</v>
@@ -2820,16 +2884,16 @@
       </c>
       <c r="K12" s="58"/>
       <c r="L12" s="76" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="M12" s="58" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="N12" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O12" s="58" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="P12" s="76" t="s">
         <v>78</v>
@@ -2857,16 +2921,16 @@
         <v>68</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>73</v>
@@ -2882,16 +2946,16 @@
       </c>
       <c r="K13" s="58"/>
       <c r="L13" s="76" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="M13" s="58" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="N13" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O13" s="58" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="P13" s="76" t="s">
         <v>78</v>
@@ -2903,7 +2967,7 @@
         <v>79</v>
       </c>
       <c r="S13" s="65" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="T13" s="56"/>
       <c r="U13" s="56"/>
@@ -2919,16 +2983,16 @@
         <v>68</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E14" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>73</v>
@@ -2943,19 +3007,19 @@
         <v>42839</v>
       </c>
       <c r="K14" s="58" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="L14" s="76" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="M14" s="58" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="N14" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O14" s="58" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="P14" s="76" t="s">
         <v>78</v>
@@ -2967,7 +3031,7 @@
         <v>79</v>
       </c>
       <c r="S14" s="65" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="T14" s="56"/>
       <c r="U14" s="56"/>
@@ -2983,16 +3047,16 @@
         <v>68</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E15" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>73</v>
@@ -3008,16 +3072,16 @@
       </c>
       <c r="K15" s="58"/>
       <c r="L15" s="76" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="M15" s="58" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="N15" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O15" s="58" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="P15" s="76" t="s">
         <v>78</v>
@@ -3029,7 +3093,7 @@
         <v>79</v>
       </c>
       <c r="S15" s="65" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="T15" s="56"/>
       <c r="U15" s="56"/>
@@ -3045,16 +3109,16 @@
         <v>68</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E16" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>73</v>
@@ -3070,16 +3134,16 @@
       </c>
       <c r="K16" s="58"/>
       <c r="L16" s="76" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="N16" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O16" s="58" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="P16" s="76" t="s">
         <v>78</v>
@@ -3091,7 +3155,7 @@
         <v>79</v>
       </c>
       <c r="S16" s="65" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="T16" s="56"/>
       <c r="U16" s="56"/>
@@ -3107,16 +3171,16 @@
         <v>68</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E17" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>73</v>
@@ -3132,16 +3196,16 @@
       </c>
       <c r="K17" s="58"/>
       <c r="L17" s="76" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="M17" s="58" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="N17" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O17" s="58" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="P17" s="76" t="s">
         <v>78</v>
@@ -3153,7 +3217,7 @@
         <v>79</v>
       </c>
       <c r="S17" s="65" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="T17" s="56"/>
       <c r="U17" s="56"/>
@@ -3169,16 +3233,16 @@
         <v>68</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F18" s="58" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>73</v>
@@ -3194,16 +3258,16 @@
       </c>
       <c r="K18" s="58"/>
       <c r="L18" s="76" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="M18" s="58" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="N18" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O18" s="58" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="P18" s="76" t="s">
         <v>78</v>
@@ -3215,7 +3279,7 @@
         <v>79</v>
       </c>
       <c r="S18" s="75" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="T18" s="65"/>
       <c r="U18" s="56"/>
@@ -3230,16 +3294,16 @@
         <v>68</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E19" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F19" s="58" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>73</v>
@@ -3255,16 +3319,16 @@
       </c>
       <c r="K19" s="58"/>
       <c r="L19" s="76" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="M19" s="58" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="N19" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O19" s="58" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="P19" s="76" t="s">
         <v>78</v>
@@ -3276,7 +3340,7 @@
         <v>79</v>
       </c>
       <c r="S19" s="75" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="T19" s="65"/>
       <c r="U19" s="56"/>
@@ -3287,55 +3351,55 @@
       <c r="A20" s="51">
         <v>19</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="92" t="s">
+      <c r="C20" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="92" t="s">
+      <c r="F20" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="84">
         <v>42841</v>
       </c>
-      <c r="I20" s="92" t="s">
+      <c r="I20" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="93">
+      <c r="J20" s="84">
         <v>42841</v>
       </c>
-      <c r="K20" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="M20" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="N20" s="92" t="s">
+      <c r="K20" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="N20" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="O20" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="P20" s="94" t="s">
+      <c r="O20" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="94"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="85"/>
       <c r="S20" s="65" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="T20" s="65"/>
       <c r="U20" s="56"/>
@@ -6976,18 +7040,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1" display="10461"/>
     <hyperlink ref="S3" r:id="rId2"/>
-    <hyperlink ref="S5" r:id="rId3" display="http://192.168.60.204/browse/MGYFZZ-212"/>
-    <hyperlink ref="S6" r:id="rId4" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-431"/>
-    <hyperlink ref="S14" r:id="rId5"/>
-    <hyperlink ref="S18" r:id="rId6"/>
-    <hyperlink ref="S19" r:id="rId7"/>
+    <hyperlink ref="S14" r:id="rId3"/>
+    <hyperlink ref="S18" r:id="rId4"/>
+    <hyperlink ref="S19" r:id="rId5"/>
+    <hyperlink ref="S5" r:id="rId6" display="http://192.168.60.204/browse/MGYFZZ-212"/>
+    <hyperlink ref="S6" r:id="rId7" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-431"/>
+    <hyperlink ref="S7" r:id="rId8" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/YF-16"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -7165,19 +7230,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -7215,8 +7280,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -7228,8 +7293,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -7241,8 +7306,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -7254,8 +7319,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -7267,8 +7332,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -7280,8 +7345,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -7293,8 +7358,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -7306,8 +7371,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -7368,36 +7433,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7441,166 +7506,166 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="101">
+      <c r="A4" s="104">
         <v>1</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="108" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="98" t="s">
-        <v>173</v>
-      </c>
-      <c r="H4" s="101" t="s">
-        <v>176</v>
-      </c>
-      <c r="I4" s="101" t="s">
-        <v>177</v>
-      </c>
-      <c r="J4" s="101" t="s">
-        <v>178</v>
-      </c>
-      <c r="K4" s="101" t="s">
-        <v>178</v>
-      </c>
-      <c r="L4" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" s="107"/>
+      <c r="M4" s="113"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="96" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="111"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="111"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="114"/>
     </row>
     <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.15">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="96" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="109"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="99" t="s">
-        <v>175</v>
-      </c>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="111"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="111"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="114"/>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="111"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="111"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="114"/>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="111"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="111"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="114"/>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="111"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="111"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="114"/>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="96" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="111"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="111"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="114"/>
     </row>
     <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.15">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="112"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="112"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="115"/>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
@@ -7729,36 +7794,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7802,43 +7867,43 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="160" x14ac:dyDescent="0.15">
-      <c r="A4" s="113">
+      <c r="A4" s="92">
         <v>1</v>
       </c>
-      <c r="B4" s="113" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="114" t="s">
-        <v>183</v>
-      </c>
-      <c r="F4" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="115" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="113" t="s">
-        <v>177</v>
-      </c>
-      <c r="J4" s="113" t="s">
-        <v>186</v>
-      </c>
-      <c r="K4" s="113" t="s">
-        <v>186</v>
-      </c>
-      <c r="L4" s="113" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="115"/>
+      <c r="B4" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="94"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
@@ -8067,36 +8132,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -8140,43 +8205,43 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="160" x14ac:dyDescent="0.15">
-      <c r="A4" s="113">
+      <c r="A4" s="92">
         <v>1</v>
       </c>
-      <c r="B4" s="113" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="113" t="s">
+      <c r="B4" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="115" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="113" t="s">
-        <v>177</v>
-      </c>
-      <c r="J4" s="113" t="s">
-        <v>186</v>
-      </c>
-      <c r="K4" s="113" t="s">
-        <v>186</v>
-      </c>
-      <c r="L4" s="113" t="s">
-        <v>190</v>
-      </c>
-      <c r="M4" s="115"/>
+      <c r="M4" s="94"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
@@ -8385,7 +8450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -8407,36 +8472,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9.xlsx
+++ b/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="778"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="778" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.9 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="218">
   <si>
     <t>No</t>
   </si>
@@ -864,12 +864,66 @@
     <t>JRYXBB-28</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
+  <si>
+    <t>5.3.9</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>月付漏斗转化报表</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>安迪</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.LoanYuefuFunneTask</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用填</t>
+  </si>
+  <si>
+    <t>LoanYuefuFunneTask</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.LoanYuefuFunneTask"}</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>每天凌晨1点执行一次</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1065,6 +1119,13 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="161"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1407,7 +1468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1755,6 +1816,21 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -2132,7 +2208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:T10"/>
     </sheetView>
   </sheetViews>
@@ -7063,8 +7139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -7144,24 +7220,56 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
+      <c r="A2" s="116" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="117" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="118" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="118" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="N2" s="118" t="s">
+        <v>215</v>
+      </c>
+      <c r="O2" s="119" t="s">
+        <v>216</v>
+      </c>
+      <c r="P2" s="120" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q2" s="119" t="s">
+        <v>217</v>
+      </c>
+      <c r="R2" s="119"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>

--- a/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9.xlsx
+++ b/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.3.9 20170418/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.3.9 20170418\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="778" activeTab="1"/>
+    <workbookView xWindow="-24" yWindow="456" windowWidth="25596" windowHeight="14556" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.9 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.9 新特性|Fix Bug'!$A$1:$W$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.9 新特性|Fix Bug'!$A$1:$W$14</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="216">
   <si>
     <t>No</t>
   </si>
@@ -746,19 +746,97 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>renterembed、renterembed-fe</t>
+    <t>极光组</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>王峥嵘、纪维玉</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇月付转化漏斗列表</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs、tasktracker</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请月付时上传资料的图片压缩</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterembed</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3.9</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>月付漏斗转化报表</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>安迪</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.LoanYuefuFunneTask</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用填</t>
+  </si>
+  <si>
+    <t>LoanYuefuFunneTask</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.LoanYuefuFunneTask"}</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>每天凌晨1点执行一次</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
   </si>
   <si>
     <t>苏玉军</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>极光组</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪维玉</t>
+    <t>紧急</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -797,11 +875,19 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>王峥嵘、纪维玉</t>
+    <t>极光组</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>蘑菇月付转化漏斗列表</t>
+    <t>姚海强</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYXBB-24</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇月付转化率图线</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -809,34 +895,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>姚海强</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>JRYXBB-24</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇月付转化率图线</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs、tasktracker</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚海强</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>纪维玉</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -845,85 +903,19 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>申请月付时上传资料的图片压缩</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>renterembed</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>裔玲玲</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>王云飞</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>JRYXBB-28</t>
     <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.3.9</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTS</t>
-  </si>
-  <si>
-    <t>极光组</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>月付漏斗转化报表</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨斌</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>安迪</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.LoanYuefuFunneTask</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>不用填</t>
-  </si>
-  <si>
-    <t>LoanYuefuFunneTask</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.LoanYuefuFunneTask"}</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时任务</t>
-  </si>
-  <si>
-    <t>每天凌晨1点执行一次</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>可重复执行，如有错，需开发修复</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1118,7 +1110,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1468,7 +1461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1670,9 +1663,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1691,9 +1681,6 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1754,6 +1741,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1817,20 +1819,14 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1847,7 +1843,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2206,39 +2202,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X170"/>
+  <dimension ref="A1:X164"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:T10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="47" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="47" customWidth="1"/>
+    <col min="2" max="3" width="9.77734375" style="47" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" style="48" customWidth="1"/>
     <col min="5" max="5" width="15" style="47" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="47" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="48" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="47" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="48" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" style="47" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="47" customWidth="1"/>
     <col min="14" max="15" width="11.33203125" style="47" customWidth="1"/>
     <col min="16" max="16" width="10" style="48" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="48" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" style="48" customWidth="1"/>
     <col min="18" max="18" width="7.6640625" style="48" customWidth="1"/>
     <col min="19" max="20" width="12" style="49" customWidth="1"/>
     <col min="21" max="21" width="17" style="49" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" style="49" customWidth="1"/>
-    <col min="23" max="23" width="41.83203125" style="48" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" style="49" customWidth="1"/>
+    <col min="23" max="23" width="41.77734375" style="48" customWidth="1"/>
+    <col min="24" max="24" width="8.77734375" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="28.8">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -2319,7 +2315,7 @@
       <c r="C2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="75" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="58" t="s">
@@ -2341,7 +2337,7 @@
         <v>42836</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="74" t="s">
         <v>74</v>
       </c>
       <c r="M2" s="58" t="s">
@@ -2363,15 +2359,15 @@
         <v>79</v>
       </c>
       <c r="S2"/>
-      <c r="T2" s="75">
+      <c r="T2" s="73">
         <v>10461</v>
       </c>
       <c r="U2" s="56"/>
       <c r="V2" s="64"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="70"/>
-    </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="W2" s="68"/>
+      <c r="X2" s="69"/>
+    </row>
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="15">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -2381,7 +2377,7 @@
       <c r="C3" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="75" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="58" t="s">
@@ -2403,7 +2399,7 @@
         <v>42841</v>
       </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="76" t="s">
+      <c r="L3" s="74" t="s">
         <v>83</v>
       </c>
       <c r="M3" s="58" t="s">
@@ -2430,20 +2426,20 @@
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
       <c r="V3" s="64"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="70"/>
-    </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="W3" s="70"/>
+      <c r="X3" s="69"/>
+    </row>
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="15">
       <c r="A4" s="51">
         <v>3</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="75" t="s">
         <v>87</v>
       </c>
       <c r="E4" s="58" t="s">
@@ -2465,7 +2461,7 @@
         <v>42842</v>
       </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="74" t="s">
         <v>89</v>
       </c>
       <c r="M4" s="58" t="s">
@@ -2477,412 +2473,414 @@
       <c r="O4" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q4" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="74" t="s">
         <v>79</v>
       </c>
       <c r="S4" s="56"/>
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="64"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="70"/>
-    </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="W4" s="77"/>
+      <c r="X4" s="69"/>
+    </row>
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="15">
       <c r="A5" s="51">
         <v>4</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>175</v>
+      <c r="C5" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>95</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H5" s="59">
-        <v>42832</v>
+        <v>42839</v>
       </c>
       <c r="I5" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J5" s="59">
-        <v>42832</v>
+        <v>42839</v>
       </c>
       <c r="K5" s="58"/>
-      <c r="L5" s="76" t="s">
-        <v>177</v>
+      <c r="L5" s="74" t="s">
+        <v>97</v>
       </c>
       <c r="M5" s="58" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="N5" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O5" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="P5" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q5" s="59">
-        <v>42838</v>
-      </c>
-      <c r="R5" s="76" t="s">
+        <v>42840</v>
+      </c>
+      <c r="R5" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="S5" s="75" t="s">
-        <v>92</v>
+      <c r="S5" s="65" t="s">
+        <v>100</v>
       </c>
       <c r="T5" s="65"/>
       <c r="U5" s="56"/>
       <c r="V5" s="64"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="70"/>
-    </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="W5" s="70"/>
+      <c r="X5" s="69"/>
+    </row>
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="30">
       <c r="A6" s="51">
         <v>5</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>180</v>
+      <c r="C6" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>101</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H6" s="59">
-        <v>42832</v>
+        <v>42839</v>
       </c>
       <c r="I6" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="59">
-        <v>42832</v>
+        <v>42839</v>
       </c>
       <c r="K6" s="58"/>
-      <c r="L6" s="76" t="s">
-        <v>182</v>
+      <c r="L6" s="74" t="s">
+        <v>103</v>
       </c>
       <c r="M6" s="58" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="N6" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q6" s="59">
-        <v>42838</v>
-      </c>
-      <c r="R6" s="76" t="s">
+        <v>42840</v>
+      </c>
+      <c r="R6" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="S6" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="T6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65">
+        <v>10852</v>
+      </c>
       <c r="U6" s="56"/>
       <c r="V6" s="64"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="70"/>
-    </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="W6" s="70"/>
+      <c r="X6" s="69"/>
+    </row>
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="15">
       <c r="A7" s="51">
         <v>6</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>183</v>
+      <c r="C7" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>105</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H7" s="59">
-        <v>42832</v>
+        <v>42839</v>
       </c>
       <c r="I7" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J7" s="59">
-        <v>42832</v>
+        <v>42839</v>
       </c>
       <c r="K7" s="58"/>
-      <c r="L7" s="76" t="s">
-        <v>185</v>
+      <c r="L7" s="74" t="s">
+        <v>107</v>
       </c>
       <c r="M7" s="58" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="N7" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O7" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="P7" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q7" s="59">
         <v>42840</v>
       </c>
-      <c r="R7" s="76" t="s">
+      <c r="R7" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="75" t="s">
-        <v>173</v>
+      <c r="S7" s="65" t="s">
+        <v>108</v>
       </c>
       <c r="T7" s="56"/>
       <c r="U7" s="56"/>
       <c r="V7" s="64"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="70"/>
-    </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="W7" s="70"/>
+      <c r="X7" s="69"/>
+    </row>
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="30">
       <c r="A8" s="51">
         <v>7</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>187</v>
+      <c r="C8" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>109</v>
       </c>
       <c r="E8" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H8" s="59">
-        <v>42832</v>
+        <v>42839</v>
       </c>
       <c r="I8" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J8" s="59">
-        <v>42832</v>
-      </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="76" t="s">
-        <v>189</v>
+        <v>42839</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="74" t="s">
+        <v>103</v>
       </c>
       <c r="M8" s="58" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="N8" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O8" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="P8" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q8" s="59">
         <v>42840</v>
       </c>
-      <c r="R8" s="76" t="s">
+      <c r="R8" s="74" t="s">
         <v>79</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="T8" s="56"/>
       <c r="U8" s="56"/>
       <c r="V8" s="64"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="70"/>
-    </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="W8" s="70"/>
+      <c r="X8" s="69"/>
+    </row>
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="15">
       <c r="A9" s="51">
         <v>8</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>192</v>
+      <c r="C9" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>113</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="59">
-        <v>42832</v>
+        <v>42839</v>
       </c>
       <c r="I9" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J9" s="59">
-        <v>42832</v>
+        <v>42839</v>
       </c>
       <c r="K9" s="58"/>
-      <c r="L9" s="76" t="s">
-        <v>194</v>
+      <c r="L9" s="74" t="s">
+        <v>115</v>
       </c>
       <c r="M9" s="58" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="N9" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O9" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="P9" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q9" s="59">
         <v>42840</v>
       </c>
-      <c r="R9" s="76" t="s">
+      <c r="R9" s="74" t="s">
         <v>79</v>
       </c>
       <c r="S9" s="65" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="T9" s="56"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="70"/>
-    </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="69"/>
+    </row>
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="30">
       <c r="A10" s="51">
         <v>9</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>198</v>
+      <c r="C10" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>117</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="78" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="78" t="s">
+      <c r="F10" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H10" s="59">
-        <v>42832</v>
+        <v>42839</v>
       </c>
       <c r="I10" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J10" s="59">
-        <v>42832</v>
-      </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="76" t="s">
-        <v>200</v>
+        <v>42839</v>
+      </c>
+      <c r="K10" s="58"/>
+      <c r="L10" s="74" t="s">
+        <v>119</v>
       </c>
       <c r="M10" s="58" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="N10" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="P10" s="76" t="s">
+      <c r="O10" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q10" s="59">
         <v>42840</v>
       </c>
-      <c r="R10" s="76" t="s">
+      <c r="R10" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="T10" s="80"/>
+      <c r="S10" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="T10" s="56"/>
       <c r="U10" s="56"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="70"/>
-    </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="V10" s="56"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="69"/>
+    </row>
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="30">
       <c r="A11" s="51">
         <v>10</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="77" t="s">
-        <v>95</v>
+      <c r="D11" s="75" t="s">
+        <v>122</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>73</v>
@@ -2897,8 +2895,8 @@
         <v>42839</v>
       </c>
       <c r="K11" s="58"/>
-      <c r="L11" s="76" t="s">
-        <v>97</v>
+      <c r="L11" s="74" t="s">
+        <v>119</v>
       </c>
       <c r="M11" s="58" t="s">
         <v>98</v>
@@ -2907,44 +2905,44 @@
         <v>76</v>
       </c>
       <c r="O11" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="P11" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q11" s="59">
         <v>42840</v>
       </c>
-      <c r="R11" s="76" t="s">
+      <c r="R11" s="74" t="s">
         <v>79</v>
       </c>
       <c r="S11" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="T11" s="65"/>
+        <v>124</v>
+      </c>
+      <c r="T11" s="56"/>
       <c r="U11" s="56"/>
-      <c r="V11" s="64"/>
+      <c r="V11" s="56"/>
       <c r="W11" s="71"/>
-      <c r="X11" s="70"/>
-    </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="X11" s="69"/>
+    </row>
+    <row r="12" spans="1:24" ht="15">
       <c r="A12" s="51">
         <v>11</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="77" t="s">
-        <v>101</v>
+      <c r="D12" s="75" t="s">
+        <v>125</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>73</v>
@@ -2959,54 +2957,53 @@
         <v>42839</v>
       </c>
       <c r="K12" s="58"/>
-      <c r="L12" s="76" t="s">
-        <v>103</v>
+      <c r="L12" s="74" t="s">
+        <v>127</v>
       </c>
       <c r="M12" s="58" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="N12" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O12" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="P12" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q12" s="59">
         <v>42840</v>
       </c>
-      <c r="R12" s="76" t="s">
+      <c r="R12" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65">
-        <v>10852</v>
-      </c>
+      <c r="S12" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="T12" s="65"/>
       <c r="U12" s="56"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="70"/>
-    </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="V12" s="56"/>
+      <c r="W12" s="57"/>
+    </row>
+    <row r="13" spans="1:24" ht="30">
       <c r="A13" s="51">
         <v>12</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="77" t="s">
-        <v>105</v>
+      <c r="D13" s="75" t="s">
+        <v>131</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>73</v>
@@ -3021,468 +3018,467 @@
         <v>42839</v>
       </c>
       <c r="K13" s="58"/>
-      <c r="L13" s="76" t="s">
-        <v>107</v>
+      <c r="L13" s="74" t="s">
+        <v>133</v>
       </c>
       <c r="M13" s="58" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="N13" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O13" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="P13" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q13" s="59">
-        <v>42840</v>
-      </c>
-      <c r="R13" s="76" t="s">
+        <v>42842</v>
+      </c>
+      <c r="R13" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="S13" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="T13" s="56"/>
+      <c r="S13" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="T13" s="65"/>
       <c r="U13" s="56"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="70"/>
-    </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="V13" s="56"/>
+      <c r="W13" s="57"/>
+    </row>
+    <row r="14" spans="1:24" ht="120">
       <c r="A14" s="51">
         <v>13</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="58" t="s">
+      <c r="D14" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="59">
-        <v>42839</v>
-      </c>
-      <c r="I14" s="58" t="s">
+      <c r="H14" s="82">
+        <v>42841</v>
+      </c>
+      <c r="I14" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="59">
-        <v>42839</v>
-      </c>
-      <c r="K14" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="M14" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="58" t="s">
+      <c r="J14" s="82">
+        <v>42841</v>
+      </c>
+      <c r="K14" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="N14" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="O14" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="P14" s="76" t="s">
+      <c r="O14" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="59">
-        <v>42840</v>
-      </c>
-      <c r="R14" s="76" t="s">
-        <v>79</v>
-      </c>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="83"/>
       <c r="S14" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="T14" s="56"/>
+        <v>142</v>
+      </c>
+      <c r="T14" s="65"/>
       <c r="U14" s="56"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="70"/>
-    </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="V14" s="56"/>
+      <c r="W14" s="57"/>
+    </row>
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="51">
         <v>14</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>113</v>
+      <c r="C15" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>175</v>
       </c>
       <c r="E15" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H15" s="59">
-        <v>42839</v>
+        <v>42832</v>
       </c>
       <c r="I15" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J15" s="59">
-        <v>42839</v>
+        <v>42832</v>
       </c>
       <c r="K15" s="58"/>
-      <c r="L15" s="76" t="s">
-        <v>115</v>
+      <c r="L15" s="74" t="s">
+        <v>199</v>
       </c>
       <c r="M15" s="58" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="N15" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O15" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="P15" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="P15" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q15" s="59">
-        <v>42840</v>
-      </c>
-      <c r="R15" s="76" t="s">
+        <v>42838</v>
+      </c>
+      <c r="R15" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="S15" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="T15" s="56"/>
+      <c r="S15" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="T15" s="65"/>
       <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="70"/>
-    </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="V15" s="64"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="69"/>
+    </row>
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="51">
         <v>15</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>117</v>
+      <c r="C16" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>201</v>
       </c>
       <c r="E16" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H16" s="59">
-        <v>42839</v>
+        <v>42832</v>
       </c>
       <c r="I16" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J16" s="59">
-        <v>42839</v>
+        <v>42832</v>
       </c>
       <c r="K16" s="58"/>
-      <c r="L16" s="76" t="s">
-        <v>119</v>
+      <c r="L16" s="74" t="s">
+        <v>203</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="N16" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O16" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="P16" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q16" s="59">
-        <v>42840</v>
-      </c>
-      <c r="R16" s="76" t="s">
+        <v>42838</v>
+      </c>
+      <c r="R16" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="T16" s="56"/>
+      <c r="S16" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="T16" s="65"/>
       <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="70"/>
-    </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="V16" s="64"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="69"/>
+    </row>
+    <row r="17" spans="1:24" s="46" customFormat="1" ht="30">
       <c r="A17" s="51">
         <v>16</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>122</v>
+      <c r="C17" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>204</v>
       </c>
       <c r="E17" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H17" s="59">
-        <v>42839</v>
+        <v>42832</v>
       </c>
       <c r="I17" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J17" s="59">
-        <v>42839</v>
+        <v>42832</v>
       </c>
       <c r="K17" s="58"/>
-      <c r="L17" s="76" t="s">
-        <v>119</v>
+      <c r="L17" s="74" t="s">
+        <v>206</v>
       </c>
       <c r="M17" s="58" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="N17" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O17" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="P17" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="P17" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q17" s="59">
         <v>42840</v>
       </c>
-      <c r="R17" s="76" t="s">
+      <c r="R17" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="S17" s="65" t="s">
-        <v>124</v>
+      <c r="S17" s="73" t="s">
+        <v>173</v>
       </c>
       <c r="T17" s="56"/>
       <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="70"/>
-    </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="V17" s="64"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="69"/>
+    </row>
+    <row r="18" spans="1:24" s="46" customFormat="1" ht="15">
       <c r="A18" s="51">
         <v>17</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>125</v>
+      <c r="C18" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>179</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F18" s="58" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H18" s="59">
-        <v>42839</v>
+        <v>42832</v>
       </c>
       <c r="I18" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="59">
-        <v>42839</v>
+        <v>42832</v>
       </c>
       <c r="K18" s="58"/>
-      <c r="L18" s="76" t="s">
-        <v>127</v>
+      <c r="L18" s="74" t="s">
+        <v>208</v>
       </c>
       <c r="M18" s="58" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="N18" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O18" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="P18" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="P18" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q18" s="59">
         <v>42840</v>
       </c>
-      <c r="R18" s="76" t="s">
+      <c r="R18" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="S18" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="T18" s="65"/>
+      <c r="S18" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="T18" s="56"/>
       <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="57"/>
-    </row>
-    <row r="19" spans="1:24" ht="32" x14ac:dyDescent="0.15">
+      <c r="V18" s="64"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="69"/>
+    </row>
+    <row r="19" spans="1:24" s="46" customFormat="1" ht="15">
       <c r="A19" s="51">
         <v>18</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="77" t="s">
-        <v>131</v>
+      <c r="C19" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>210</v>
       </c>
       <c r="E19" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F19" s="58" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H19" s="59">
-        <v>42839</v>
+        <v>42832</v>
       </c>
       <c r="I19" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J19" s="59">
-        <v>42839</v>
+        <v>42832</v>
       </c>
       <c r="K19" s="58"/>
-      <c r="L19" s="76" t="s">
-        <v>133</v>
+      <c r="L19" s="74" t="s">
+        <v>208</v>
       </c>
       <c r="M19" s="58" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="N19" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O19" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="P19" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="P19" s="74" t="s">
         <v>78</v>
       </c>
       <c r="Q19" s="59">
-        <v>42842</v>
-      </c>
-      <c r="R19" s="76" t="s">
+        <v>42840</v>
+      </c>
+      <c r="R19" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="S19" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="T19" s="65"/>
+      <c r="S19" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="T19" s="56"/>
       <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="57"/>
-    </row>
-    <row r="20" spans="1:24" ht="128" x14ac:dyDescent="0.15">
+      <c r="V19" s="64"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="69"/>
+    </row>
+    <row r="20" spans="1:24" s="121" customFormat="1" ht="15">
       <c r="A20" s="51">
         <v>19</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="83" t="s">
+      <c r="C20" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="84">
-        <v>42841</v>
-      </c>
-      <c r="I20" s="83" t="s">
+      <c r="H20" s="59">
+        <v>42832</v>
+      </c>
+      <c r="I20" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="84">
-        <v>42841</v>
-      </c>
-      <c r="K20" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="85" t="s">
-        <v>139</v>
-      </c>
-      <c r="M20" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="N20" s="83" t="s">
+      <c r="J20" s="59">
+        <v>42832</v>
+      </c>
+      <c r="K20" s="76"/>
+      <c r="L20" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="N20" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="O20" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="P20" s="85" t="s">
+      <c r="O20" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="P20" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="T20" s="65"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="57"/>
-    </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="Q20" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R20" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="S20" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="120"/>
+    </row>
+    <row r="21" spans="1:24" ht="15">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -3494,20 +3490,20 @@
       <c r="I21" s="58"/>
       <c r="J21" s="59"/>
       <c r="K21" s="58"/>
-      <c r="L21" s="62"/>
+      <c r="L21" s="58"/>
       <c r="M21" s="58"/>
       <c r="N21" s="58"/>
       <c r="O21" s="62"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="59"/>
       <c r="R21" s="62"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="71"/>
-    </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="72"/>
+    </row>
+    <row r="22" spans="1:24" ht="15">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -3526,13 +3522,13 @@
       <c r="P22" s="62"/>
       <c r="Q22" s="59"/>
       <c r="R22" s="62"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="71"/>
-    </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="72"/>
+    </row>
+    <row r="23" spans="1:24" ht="15">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -3551,13 +3547,13 @@
       <c r="P23" s="62"/>
       <c r="Q23" s="59"/>
       <c r="R23" s="62"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="71"/>
-    </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="62"/>
+    </row>
+    <row r="24" spans="1:24" ht="15">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -3576,13 +3572,13 @@
       <c r="P24" s="62"/>
       <c r="Q24" s="59"/>
       <c r="R24" s="62"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="73"/>
-    </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="70"/>
+    </row>
+    <row r="25" spans="1:24" ht="15">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -3601,13 +3597,13 @@
       <c r="P25" s="62"/>
       <c r="Q25" s="59"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="73"/>
-    </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="70"/>
+    </row>
+    <row r="26" spans="1:24" ht="15">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -3619,20 +3615,20 @@
       <c r="I26" s="58"/>
       <c r="J26" s="59"/>
       <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="58"/>
       <c r="N26" s="58"/>
       <c r="O26" s="62"/>
       <c r="P26" s="62"/>
       <c r="Q26" s="59"/>
       <c r="R26" s="62"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="73"/>
-    </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="70"/>
+    </row>
+    <row r="27" spans="1:24" ht="15">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -3643,27 +3639,27 @@
       <c r="H27" s="59"/>
       <c r="I27" s="58"/>
       <c r="J27" s="59"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="62"/>
       <c r="M27" s="58"/>
       <c r="N27" s="58"/>
       <c r="O27" s="62"/>
       <c r="P27" s="62"/>
       <c r="Q27" s="59"/>
       <c r="R27" s="62"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="73"/>
-    </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="72"/>
+    </row>
+    <row r="28" spans="1:24" ht="15">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
-      <c r="D28" s="54"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="58"/>
-      <c r="F28" s="60"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="58"/>
       <c r="H28" s="59"/>
       <c r="I28" s="58"/>
@@ -3672,23 +3668,23 @@
       <c r="L28" s="62"/>
       <c r="M28" s="58"/>
       <c r="N28" s="58"/>
-      <c r="O28" s="62"/>
+      <c r="O28" s="58"/>
       <c r="P28" s="62"/>
       <c r="Q28" s="59"/>
       <c r="R28" s="62"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="73"/>
-    </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="68"/>
+    </row>
+    <row r="29" spans="1:24" ht="15">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
-      <c r="D29" s="54"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="58"/>
-      <c r="F29" s="60"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="58"/>
       <c r="H29" s="59"/>
       <c r="I29" s="58"/>
@@ -3697,23 +3693,23 @@
       <c r="L29" s="62"/>
       <c r="M29" s="58"/>
       <c r="N29" s="58"/>
-      <c r="O29" s="62"/>
+      <c r="O29" s="58"/>
       <c r="P29" s="62"/>
       <c r="Q29" s="59"/>
       <c r="R29" s="62"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="62"/>
-    </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="70"/>
+    </row>
+    <row r="30" spans="1:24" ht="15">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
-      <c r="D30" s="54"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="58"/>
-      <c r="F30" s="60"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="58"/>
       <c r="H30" s="59"/>
       <c r="I30" s="58"/>
@@ -3722,7 +3718,7 @@
       <c r="L30" s="62"/>
       <c r="M30" s="58"/>
       <c r="N30" s="58"/>
-      <c r="O30" s="62"/>
+      <c r="O30" s="58"/>
       <c r="P30" s="62"/>
       <c r="Q30" s="59"/>
       <c r="R30" s="62"/>
@@ -3730,15 +3726,15 @@
       <c r="T30" s="56"/>
       <c r="U30" s="56"/>
       <c r="V30" s="56"/>
-      <c r="W30" s="71"/>
-    </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="W30" s="70"/>
+    </row>
+    <row r="31" spans="1:24" ht="15">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
-      <c r="D31" s="54"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="58"/>
-      <c r="F31" s="60"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="58"/>
       <c r="H31" s="59"/>
       <c r="I31" s="58"/>
@@ -3747,7 +3743,7 @@
       <c r="L31" s="62"/>
       <c r="M31" s="58"/>
       <c r="N31" s="58"/>
-      <c r="O31" s="62"/>
+      <c r="O31" s="58"/>
       <c r="P31" s="62"/>
       <c r="Q31" s="59"/>
       <c r="R31" s="62"/>
@@ -3755,15 +3751,15 @@
       <c r="T31" s="56"/>
       <c r="U31" s="56"/>
       <c r="V31" s="56"/>
-      <c r="W31" s="71"/>
-    </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="W31" s="70"/>
+    </row>
+    <row r="32" spans="1:24" ht="15">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
-      <c r="D32" s="54"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="60"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="58"/>
       <c r="H32" s="59"/>
       <c r="I32" s="58"/>
@@ -3772,7 +3768,7 @@
       <c r="L32" s="62"/>
       <c r="M32" s="58"/>
       <c r="N32" s="58"/>
-      <c r="O32" s="62"/>
+      <c r="O32" s="58"/>
       <c r="P32" s="62"/>
       <c r="Q32" s="59"/>
       <c r="R32" s="62"/>
@@ -3780,34 +3776,34 @@
       <c r="T32" s="56"/>
       <c r="U32" s="56"/>
       <c r="V32" s="56"/>
-      <c r="W32" s="71"/>
-    </row>
-    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="W32" s="70"/>
+    </row>
+    <row r="33" spans="1:23" ht="15">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
-      <c r="D33" s="54"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="58"/>
-      <c r="F33" s="60"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="58"/>
       <c r="H33" s="59"/>
       <c r="I33" s="58"/>
       <c r="J33" s="59"/>
-      <c r="K33" s="60"/>
+      <c r="K33" s="58"/>
       <c r="L33" s="62"/>
       <c r="M33" s="58"/>
       <c r="N33" s="58"/>
-      <c r="O33" s="62"/>
+      <c r="O33" s="58"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="59"/>
       <c r="R33" s="62"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="73"/>
-    </row>
-    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="70"/>
+    </row>
+    <row r="34" spans="1:23" ht="15">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -3830,9 +3826,9 @@
       <c r="T34" s="56"/>
       <c r="U34" s="56"/>
       <c r="V34" s="56"/>
-      <c r="W34" s="69"/>
-    </row>
-    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="W34" s="70"/>
+    </row>
+    <row r="35" spans="1:23" ht="15">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -3855,9 +3851,9 @@
       <c r="T35" s="56"/>
       <c r="U35" s="56"/>
       <c r="V35" s="56"/>
-      <c r="W35" s="71"/>
-    </row>
-    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="W35" s="70"/>
+    </row>
+    <row r="36" spans="1:23" ht="15">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -3880,9 +3876,9 @@
       <c r="T36" s="56"/>
       <c r="U36" s="56"/>
       <c r="V36" s="56"/>
-      <c r="W36" s="71"/>
-    </row>
-    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="W36" s="70"/>
+    </row>
+    <row r="37" spans="1:23" ht="15">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -3905,9 +3901,9 @@
       <c r="T37" s="56"/>
       <c r="U37" s="56"/>
       <c r="V37" s="56"/>
-      <c r="W37" s="71"/>
-    </row>
-    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="W37" s="70"/>
+    </row>
+    <row r="38" spans="1:23" ht="15">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -3930,72 +3926,72 @@
       <c r="T38" s="56"/>
       <c r="U38" s="56"/>
       <c r="V38" s="56"/>
-      <c r="W38" s="71"/>
-    </row>
-    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="W38" s="70"/>
+    </row>
+    <row r="39" spans="1:23" ht="15">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="58"/>
       <c r="F39" s="58"/>
       <c r="G39" s="58"/>
       <c r="H39" s="59"/>
-      <c r="I39" s="58"/>
+      <c r="I39" s="59"/>
       <c r="J39" s="59"/>
       <c r="K39" s="58"/>
       <c r="L39" s="62"/>
-      <c r="M39" s="58"/>
+      <c r="M39" s="62"/>
       <c r="N39" s="58"/>
       <c r="O39" s="58"/>
       <c r="P39" s="62"/>
       <c r="Q39" s="59"/>
       <c r="R39" s="62"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="71"/>
-    </row>
-    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="70"/>
+    </row>
+    <row r="40" spans="1:23" ht="15">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
-      <c r="D40" s="52"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="58"/>
       <c r="F40" s="58"/>
       <c r="G40" s="58"/>
       <c r="H40" s="59"/>
-      <c r="I40" s="58"/>
+      <c r="I40" s="59"/>
       <c r="J40" s="59"/>
       <c r="K40" s="58"/>
       <c r="L40" s="62"/>
-      <c r="M40" s="58"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="58"/>
       <c r="O40" s="58"/>
       <c r="P40" s="62"/>
       <c r="Q40" s="59"/>
       <c r="R40" s="62"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="71"/>
-    </row>
-    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="70"/>
+    </row>
+    <row r="41" spans="1:23" ht="15">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58"/>
       <c r="G41" s="58"/>
       <c r="H41" s="59"/>
-      <c r="I41" s="58"/>
+      <c r="I41" s="59"/>
       <c r="J41" s="59"/>
-      <c r="K41" s="58"/>
+      <c r="K41" s="63"/>
       <c r="L41" s="62"/>
-      <c r="M41" s="58"/>
+      <c r="M41" s="62"/>
       <c r="N41" s="58"/>
       <c r="O41" s="58"/>
       <c r="P41" s="62"/>
@@ -4005,22 +4001,22 @@
       <c r="T41" s="56"/>
       <c r="U41" s="56"/>
       <c r="V41" s="56"/>
-      <c r="W41" s="71"/>
-    </row>
-    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="W41" s="57"/>
+    </row>
+    <row r="42" spans="1:23" ht="15">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="58"/>
       <c r="F42" s="58"/>
       <c r="G42" s="58"/>
       <c r="H42" s="59"/>
-      <c r="I42" s="58"/>
+      <c r="I42" s="59"/>
       <c r="J42" s="59"/>
-      <c r="K42" s="58"/>
+      <c r="K42" s="63"/>
       <c r="L42" s="62"/>
-      <c r="M42" s="58"/>
+      <c r="M42" s="62"/>
       <c r="N42" s="58"/>
       <c r="O42" s="58"/>
       <c r="P42" s="62"/>
@@ -4030,22 +4026,22 @@
       <c r="T42" s="56"/>
       <c r="U42" s="56"/>
       <c r="V42" s="56"/>
-      <c r="W42" s="71"/>
-    </row>
-    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="W42" s="57"/>
+    </row>
+    <row r="43" spans="1:23" ht="15">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
-      <c r="D43" s="52"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="58"/>
       <c r="F43" s="58"/>
       <c r="G43" s="58"/>
       <c r="H43" s="59"/>
-      <c r="I43" s="58"/>
+      <c r="I43" s="59"/>
       <c r="J43" s="59"/>
-      <c r="K43" s="58"/>
+      <c r="K43" s="63"/>
       <c r="L43" s="62"/>
-      <c r="M43" s="58"/>
+      <c r="M43" s="62"/>
       <c r="N43" s="58"/>
       <c r="O43" s="58"/>
       <c r="P43" s="62"/>
@@ -4055,22 +4051,22 @@
       <c r="T43" s="56"/>
       <c r="U43" s="56"/>
       <c r="V43" s="56"/>
-      <c r="W43" s="71"/>
-    </row>
-    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="W43" s="57"/>
+    </row>
+    <row r="44" spans="1:23" ht="15">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
-      <c r="D44" s="52"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="58"/>
       <c r="F44" s="58"/>
       <c r="G44" s="58"/>
       <c r="H44" s="59"/>
-      <c r="I44" s="58"/>
+      <c r="I44" s="59"/>
       <c r="J44" s="59"/>
-      <c r="K44" s="58"/>
+      <c r="K44" s="63"/>
       <c r="L44" s="62"/>
-      <c r="M44" s="58"/>
+      <c r="M44" s="62"/>
       <c r="N44" s="58"/>
       <c r="O44" s="58"/>
       <c r="P44" s="62"/>
@@ -4080,20 +4076,20 @@
       <c r="T44" s="56"/>
       <c r="U44" s="56"/>
       <c r="V44" s="56"/>
-      <c r="W44" s="71"/>
-    </row>
-    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="W44" s="57"/>
+    </row>
+    <row r="45" spans="1:23" ht="15">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
-      <c r="D45" s="53"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="58"/>
       <c r="F45" s="58"/>
       <c r="G45" s="58"/>
       <c r="H45" s="59"/>
       <c r="I45" s="59"/>
       <c r="J45" s="59"/>
-      <c r="K45" s="58"/>
+      <c r="K45" s="63"/>
       <c r="L45" s="62"/>
       <c r="M45" s="62"/>
       <c r="N45" s="58"/>
@@ -4101,24 +4097,24 @@
       <c r="P45" s="62"/>
       <c r="Q45" s="59"/>
       <c r="R45" s="62"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="66"/>
-      <c r="W45" s="71"/>
-    </row>
-    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="57"/>
+    </row>
+    <row r="46" spans="1:23" ht="15">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
-      <c r="D46" s="53"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="58"/>
       <c r="F46" s="58"/>
       <c r="G46" s="58"/>
       <c r="H46" s="59"/>
       <c r="I46" s="59"/>
       <c r="J46" s="59"/>
-      <c r="K46" s="58"/>
+      <c r="K46" s="63"/>
       <c r="L46" s="62"/>
       <c r="M46" s="62"/>
       <c r="N46" s="58"/>
@@ -4126,13 +4122,13 @@
       <c r="P46" s="62"/>
       <c r="Q46" s="59"/>
       <c r="R46" s="62"/>
-      <c r="S46" s="66"/>
-      <c r="T46" s="66"/>
-      <c r="U46" s="66"/>
-      <c r="V46" s="66"/>
-      <c r="W46" s="71"/>
-    </row>
-    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="57"/>
+    </row>
+    <row r="47" spans="1:23" ht="15">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -4157,157 +4153,157 @@
       <c r="V47" s="56"/>
       <c r="W47" s="57"/>
     </row>
-    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="58"/>
+    <row r="48" spans="1:23" ht="15">
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="56"/>
       <c r="F48" s="58"/>
       <c r="G48" s="58"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="61"/>
       <c r="K48" s="63"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
       <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="62"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="57"/>
       <c r="S48" s="56"/>
       <c r="T48" s="56"/>
       <c r="U48" s="56"/>
       <c r="V48" s="56"/>
       <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="58"/>
+    <row r="49" spans="1:23" ht="15">
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="56"/>
       <c r="F49" s="58"/>
       <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="61"/>
       <c r="K49" s="63"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
       <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="62"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="57"/>
       <c r="S49" s="56"/>
       <c r="T49" s="56"/>
       <c r="U49" s="56"/>
       <c r="V49" s="56"/>
       <c r="W49" s="57"/>
     </row>
-    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A50" s="51"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="58"/>
+    <row r="50" spans="1:23" ht="15">
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="58"/>
       <c r="G50" s="58"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="61"/>
       <c r="K50" s="63"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
       <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="62"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="57"/>
       <c r="S50" s="56"/>
       <c r="T50" s="56"/>
       <c r="U50" s="56"/>
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
     </row>
-    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="58"/>
+    <row r="51" spans="1:23" ht="15">
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="56"/>
       <c r="F51" s="58"/>
       <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="61"/>
       <c r="K51" s="63"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
       <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="62"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="57"/>
       <c r="S51" s="56"/>
       <c r="T51" s="56"/>
       <c r="U51" s="56"/>
       <c r="V51" s="56"/>
       <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="58"/>
+    <row r="52" spans="1:23" ht="15">
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="56"/>
       <c r="F52" s="58"/>
       <c r="G52" s="58"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="61"/>
       <c r="K52" s="63"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
       <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="62"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="57"/>
       <c r="S52" s="56"/>
       <c r="T52" s="56"/>
       <c r="U52" s="56"/>
       <c r="V52" s="56"/>
       <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="58"/>
+    <row r="53" spans="1:23" ht="15">
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="56"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="61"/>
       <c r="K53" s="63"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
       <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="62"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="57"/>
       <c r="S53" s="56"/>
       <c r="T53" s="56"/>
       <c r="U53" s="56"/>
       <c r="V53" s="56"/>
       <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="15">
       <c r="A54" s="56"/>
       <c r="B54" s="56"/>
       <c r="C54" s="56"/>
@@ -4332,7 +4328,7 @@
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="15">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -4357,7 +4353,7 @@
       <c r="V55" s="56"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="15">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -4382,7 +4378,7 @@
       <c r="V56" s="56"/>
       <c r="W56" s="57"/>
     </row>
-    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="15">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -4407,7 +4403,7 @@
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
     </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="15">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
@@ -4432,7 +4428,7 @@
       <c r="V58" s="56"/>
       <c r="W58" s="57"/>
     </row>
-    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="15">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
@@ -4457,7 +4453,7 @@
       <c r="V59" s="56"/>
       <c r="W59" s="57"/>
     </row>
-    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="15">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -4482,7 +4478,7 @@
       <c r="V60" s="56"/>
       <c r="W60" s="57"/>
     </row>
-    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="15">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -4507,7 +4503,7 @@
       <c r="V61" s="56"/>
       <c r="W61" s="57"/>
     </row>
-    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="15">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
@@ -4532,7 +4528,7 @@
       <c r="V62" s="56"/>
       <c r="W62" s="57"/>
     </row>
-    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="15">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
@@ -4557,14 +4553,14 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="15">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
       <c r="D64" s="57"/>
       <c r="E64" s="56"/>
       <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
+      <c r="G64" s="56"/>
       <c r="H64" s="61"/>
       <c r="I64" s="56"/>
       <c r="J64" s="61"/>
@@ -4582,14 +4578,14 @@
       <c r="V64" s="56"/>
       <c r="W64" s="57"/>
     </row>
-    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="15">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
       <c r="D65" s="57"/>
       <c r="E65" s="56"/>
       <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
+      <c r="G65" s="56"/>
       <c r="H65" s="61"/>
       <c r="I65" s="56"/>
       <c r="J65" s="61"/>
@@ -4607,14 +4603,14 @@
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
     </row>
-    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="15">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
       <c r="D66" s="57"/>
       <c r="E66" s="56"/>
       <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="61"/>
       <c r="I66" s="56"/>
       <c r="J66" s="61"/>
@@ -4632,14 +4628,14 @@
       <c r="V66" s="56"/>
       <c r="W66" s="57"/>
     </row>
-    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="15">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
       <c r="D67" s="57"/>
       <c r="E67" s="56"/>
       <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
+      <c r="G67" s="56"/>
       <c r="H67" s="61"/>
       <c r="I67" s="56"/>
       <c r="J67" s="61"/>
@@ -4657,14 +4653,14 @@
       <c r="V67" s="56"/>
       <c r="W67" s="57"/>
     </row>
-    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="15">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
       <c r="D68" s="57"/>
       <c r="E68" s="56"/>
       <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
+      <c r="G68" s="56"/>
       <c r="H68" s="61"/>
       <c r="I68" s="56"/>
       <c r="J68" s="61"/>
@@ -4682,14 +4678,14 @@
       <c r="V68" s="56"/>
       <c r="W68" s="57"/>
     </row>
-    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="15">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
       <c r="D69" s="57"/>
       <c r="E69" s="56"/>
       <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
+      <c r="G69" s="56"/>
       <c r="H69" s="61"/>
       <c r="I69" s="56"/>
       <c r="J69" s="61"/>
@@ -4707,13 +4703,13 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="15">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
       <c r="D70" s="57"/>
       <c r="E70" s="56"/>
-      <c r="F70" s="58"/>
+      <c r="F70" s="56"/>
       <c r="G70" s="56"/>
       <c r="H70" s="61"/>
       <c r="I70" s="56"/>
@@ -4732,13 +4728,13 @@
       <c r="V70" s="56"/>
       <c r="W70" s="57"/>
     </row>
-    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="15">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
       <c r="D71" s="57"/>
       <c r="E71" s="56"/>
-      <c r="F71" s="58"/>
+      <c r="F71" s="56"/>
       <c r="G71" s="56"/>
       <c r="H71" s="61"/>
       <c r="I71" s="56"/>
@@ -4757,13 +4753,13 @@
       <c r="V71" s="56"/>
       <c r="W71" s="57"/>
     </row>
-    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="15">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
       <c r="D72" s="57"/>
       <c r="E72" s="56"/>
-      <c r="F72" s="58"/>
+      <c r="F72" s="56"/>
       <c r="G72" s="56"/>
       <c r="H72" s="61"/>
       <c r="I72" s="56"/>
@@ -4782,13 +4778,13 @@
       <c r="V72" s="56"/>
       <c r="W72" s="57"/>
     </row>
-    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="15">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
       <c r="D73" s="57"/>
       <c r="E73" s="56"/>
-      <c r="F73" s="58"/>
+      <c r="F73" s="56"/>
       <c r="G73" s="56"/>
       <c r="H73" s="61"/>
       <c r="I73" s="56"/>
@@ -4807,13 +4803,13 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
       <c r="D74" s="57"/>
       <c r="E74" s="56"/>
-      <c r="F74" s="58"/>
+      <c r="F74" s="56"/>
       <c r="G74" s="56"/>
       <c r="H74" s="61"/>
       <c r="I74" s="56"/>
@@ -4821,7 +4817,7 @@
       <c r="K74" s="63"/>
       <c r="L74" s="56"/>
       <c r="M74" s="56"/>
-      <c r="N74" s="58"/>
+      <c r="N74" s="56"/>
       <c r="O74" s="56"/>
       <c r="P74" s="56"/>
       <c r="Q74" s="61"/>
@@ -4832,13 +4828,13 @@
       <c r="V74" s="56"/>
       <c r="W74" s="57"/>
     </row>
-    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
       <c r="D75" s="57"/>
       <c r="E75" s="56"/>
-      <c r="F75" s="58"/>
+      <c r="F75" s="56"/>
       <c r="G75" s="56"/>
       <c r="H75" s="61"/>
       <c r="I75" s="56"/>
@@ -4846,7 +4842,7 @@
       <c r="K75" s="63"/>
       <c r="L75" s="56"/>
       <c r="M75" s="56"/>
-      <c r="N75" s="58"/>
+      <c r="N75" s="56"/>
       <c r="O75" s="56"/>
       <c r="P75" s="56"/>
       <c r="Q75" s="61"/>
@@ -4857,7 +4853,7 @@
       <c r="V75" s="56"/>
       <c r="W75" s="57"/>
     </row>
-    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -4871,7 +4867,7 @@
       <c r="K76" s="63"/>
       <c r="L76" s="56"/>
       <c r="M76" s="56"/>
-      <c r="N76" s="58"/>
+      <c r="N76" s="56"/>
       <c r="O76" s="56"/>
       <c r="P76" s="56"/>
       <c r="Q76" s="61"/>
@@ -4882,7 +4878,7 @@
       <c r="V76" s="56"/>
       <c r="W76" s="57"/>
     </row>
-    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -4896,7 +4892,7 @@
       <c r="K77" s="63"/>
       <c r="L77" s="56"/>
       <c r="M77" s="56"/>
-      <c r="N77" s="58"/>
+      <c r="N77" s="56"/>
       <c r="O77" s="56"/>
       <c r="P77" s="56"/>
       <c r="Q77" s="61"/>
@@ -4907,7 +4903,7 @@
       <c r="V77" s="56"/>
       <c r="W77" s="57"/>
     </row>
-    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -4921,7 +4917,7 @@
       <c r="K78" s="63"/>
       <c r="L78" s="56"/>
       <c r="M78" s="56"/>
-      <c r="N78" s="58"/>
+      <c r="N78" s="56"/>
       <c r="O78" s="56"/>
       <c r="P78" s="56"/>
       <c r="Q78" s="61"/>
@@ -4932,7 +4928,7 @@
       <c r="V78" s="56"/>
       <c r="W78" s="57"/>
     </row>
-    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -4946,7 +4942,7 @@
       <c r="K79" s="63"/>
       <c r="L79" s="56"/>
       <c r="M79" s="56"/>
-      <c r="N79" s="58"/>
+      <c r="N79" s="56"/>
       <c r="O79" s="56"/>
       <c r="P79" s="56"/>
       <c r="Q79" s="61"/>
@@ -4957,7 +4953,7 @@
       <c r="V79" s="56"/>
       <c r="W79" s="57"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
@@ -4982,7 +4978,7 @@
       <c r="V80" s="56"/>
       <c r="W80" s="57"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -5007,7 +5003,7 @@
       <c r="V81" s="56"/>
       <c r="W81" s="57"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
@@ -5032,7 +5028,7 @@
       <c r="V82" s="56"/>
       <c r="W82" s="57"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
@@ -5057,7 +5053,7 @@
       <c r="V83" s="56"/>
       <c r="W83" s="57"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -5082,7 +5078,7 @@
       <c r="V84" s="56"/>
       <c r="W84" s="57"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -5107,7 +5103,7 @@
       <c r="V85" s="56"/>
       <c r="W85" s="57"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
@@ -5132,7 +5128,7 @@
       <c r="V86" s="56"/>
       <c r="W86" s="57"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
@@ -5157,7 +5153,7 @@
       <c r="V87" s="56"/>
       <c r="W87" s="57"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -5182,7 +5178,7 @@
       <c r="V88" s="56"/>
       <c r="W88" s="57"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
@@ -5207,7 +5203,7 @@
       <c r="V89" s="56"/>
       <c r="W89" s="57"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
@@ -5232,7 +5228,7 @@
       <c r="V90" s="56"/>
       <c r="W90" s="57"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -5257,7 +5253,7 @@
       <c r="V91" s="56"/>
       <c r="W91" s="57"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -5282,7 +5278,7 @@
       <c r="V92" s="56"/>
       <c r="W92" s="57"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -5307,7 +5303,7 @@
       <c r="V93" s="56"/>
       <c r="W93" s="57"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -5332,7 +5328,7 @@
       <c r="V94" s="56"/>
       <c r="W94" s="57"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -5357,7 +5353,7 @@
       <c r="V95" s="56"/>
       <c r="W95" s="57"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -5382,7 +5378,7 @@
       <c r="V96" s="56"/>
       <c r="W96" s="57"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -5407,7 +5403,7 @@
       <c r="V97" s="56"/>
       <c r="W97" s="57"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -5432,7 +5428,7 @@
       <c r="V98" s="56"/>
       <c r="W98" s="57"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -5457,7 +5453,7 @@
       <c r="V99" s="56"/>
       <c r="W99" s="57"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -5482,7 +5478,7 @@
       <c r="V100" s="56"/>
       <c r="W100" s="57"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -5507,7 +5503,7 @@
       <c r="V101" s="56"/>
       <c r="W101" s="57"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -5532,7 +5528,7 @@
       <c r="V102" s="56"/>
       <c r="W102" s="57"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
@@ -5557,7 +5553,7 @@
       <c r="V103" s="56"/>
       <c r="W103" s="57"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
@@ -5582,7 +5578,7 @@
       <c r="V104" s="56"/>
       <c r="W104" s="57"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
@@ -5607,7 +5603,7 @@
       <c r="V105" s="56"/>
       <c r="W105" s="57"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
@@ -5632,7 +5628,7 @@
       <c r="V106" s="56"/>
       <c r="W106" s="57"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
@@ -5657,7 +5653,7 @@
       <c r="V107" s="56"/>
       <c r="W107" s="57"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
@@ -5682,7 +5678,7 @@
       <c r="V108" s="56"/>
       <c r="W108" s="57"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
@@ -5707,7 +5703,7 @@
       <c r="V109" s="56"/>
       <c r="W109" s="57"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -5732,7 +5728,7 @@
       <c r="V110" s="56"/>
       <c r="W110" s="57"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -5757,7 +5753,7 @@
       <c r="V111" s="56"/>
       <c r="W111" s="57"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
@@ -5782,7 +5778,7 @@
       <c r="V112" s="56"/>
       <c r="W112" s="57"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
@@ -5807,7 +5803,7 @@
       <c r="V113" s="56"/>
       <c r="W113" s="57"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
@@ -5832,7 +5828,7 @@
       <c r="V114" s="56"/>
       <c r="W114" s="57"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
@@ -5857,7 +5853,7 @@
       <c r="V115" s="56"/>
       <c r="W115" s="57"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
@@ -5882,7 +5878,7 @@
       <c r="V116" s="56"/>
       <c r="W116" s="57"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
@@ -5907,7 +5903,7 @@
       <c r="V117" s="56"/>
       <c r="W117" s="57"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
@@ -5932,7 +5928,7 @@
       <c r="V118" s="56"/>
       <c r="W118" s="57"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -5957,7 +5953,7 @@
       <c r="V119" s="56"/>
       <c r="W119" s="57"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
@@ -5982,7 +5978,7 @@
       <c r="V120" s="56"/>
       <c r="W120" s="57"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
@@ -6007,7 +6003,7 @@
       <c r="V121" s="56"/>
       <c r="W121" s="57"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
@@ -6032,7 +6028,7 @@
       <c r="V122" s="56"/>
       <c r="W122" s="57"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -6057,7 +6053,7 @@
       <c r="V123" s="56"/>
       <c r="W123" s="57"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -6082,7 +6078,7 @@
       <c r="V124" s="56"/>
       <c r="W124" s="57"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
@@ -6107,7 +6103,7 @@
       <c r="V125" s="56"/>
       <c r="W125" s="57"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
@@ -6132,7 +6128,7 @@
       <c r="V126" s="56"/>
       <c r="W126" s="57"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
@@ -6157,7 +6153,7 @@
       <c r="V127" s="56"/>
       <c r="W127" s="57"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
@@ -6182,7 +6178,7 @@
       <c r="V128" s="56"/>
       <c r="W128" s="57"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
@@ -6207,7 +6203,7 @@
       <c r="V129" s="56"/>
       <c r="W129" s="57"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
@@ -6226,13 +6222,9 @@
       <c r="P130" s="56"/>
       <c r="Q130" s="61"/>
       <c r="R130" s="57"/>
-      <c r="S130" s="56"/>
-      <c r="T130" s="56"/>
-      <c r="U130" s="56"/>
-      <c r="V130" s="56"/>
       <c r="W130" s="57"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
@@ -6251,13 +6243,9 @@
       <c r="P131" s="56"/>
       <c r="Q131" s="61"/>
       <c r="R131" s="57"/>
-      <c r="S131" s="56"/>
-      <c r="T131" s="56"/>
-      <c r="U131" s="56"/>
-      <c r="V131" s="56"/>
       <c r="W131" s="57"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
@@ -6276,13 +6264,9 @@
       <c r="P132" s="56"/>
       <c r="Q132" s="61"/>
       <c r="R132" s="57"/>
-      <c r="S132" s="56"/>
-      <c r="T132" s="56"/>
-      <c r="U132" s="56"/>
-      <c r="V132" s="56"/>
       <c r="W132" s="57"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -6301,13 +6285,9 @@
       <c r="P133" s="56"/>
       <c r="Q133" s="61"/>
       <c r="R133" s="57"/>
-      <c r="S133" s="56"/>
-      <c r="T133" s="56"/>
-      <c r="U133" s="56"/>
-      <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
@@ -6326,13 +6306,9 @@
       <c r="P134" s="56"/>
       <c r="Q134" s="61"/>
       <c r="R134" s="57"/>
-      <c r="S134" s="56"/>
-      <c r="T134" s="56"/>
-      <c r="U134" s="56"/>
-      <c r="V134" s="56"/>
       <c r="W134" s="57"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -6351,13 +6327,9 @@
       <c r="P135" s="56"/>
       <c r="Q135" s="61"/>
       <c r="R135" s="57"/>
-      <c r="S135" s="56"/>
-      <c r="T135" s="56"/>
-      <c r="U135" s="56"/>
-      <c r="V135" s="56"/>
       <c r="W135" s="57"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
@@ -6378,7 +6350,7 @@
       <c r="R136" s="57"/>
       <c r="W136" s="57"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -6399,7 +6371,7 @@
       <c r="R137" s="57"/>
       <c r="W137" s="57"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
@@ -6420,7 +6392,7 @@
       <c r="R138" s="57"/>
       <c r="W138" s="57"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -6441,7 +6413,7 @@
       <c r="R139" s="57"/>
       <c r="W139" s="57"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
@@ -6462,7 +6434,7 @@
       <c r="R140" s="57"/>
       <c r="W140" s="57"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
@@ -6483,7 +6455,7 @@
       <c r="R141" s="57"/>
       <c r="W141" s="57"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
@@ -6504,7 +6476,7 @@
       <c r="R142" s="57"/>
       <c r="W142" s="57"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
@@ -6525,7 +6497,7 @@
       <c r="R143" s="57"/>
       <c r="W143" s="57"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
@@ -6546,7 +6518,7 @@
       <c r="R144" s="57"/>
       <c r="W144" s="57"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
@@ -6567,7 +6539,7 @@
       <c r="R145" s="57"/>
       <c r="W145" s="57"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
@@ -6588,7 +6560,7 @@
       <c r="R146" s="57"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -6609,7 +6581,7 @@
       <c r="R147" s="57"/>
       <c r="W147" s="57"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -6630,7 +6602,7 @@
       <c r="R148" s="57"/>
       <c r="W148" s="57"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -6651,7 +6623,7 @@
       <c r="R149" s="57"/>
       <c r="W149" s="57"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
@@ -6672,7 +6644,7 @@
       <c r="R150" s="57"/>
       <c r="W150" s="57"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -6693,7 +6665,7 @@
       <c r="R151" s="57"/>
       <c r="W151" s="57"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -6714,7 +6686,7 @@
       <c r="R152" s="57"/>
       <c r="W152" s="57"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -6735,7 +6707,7 @@
       <c r="R153" s="57"/>
       <c r="W153" s="57"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
@@ -6756,7 +6728,7 @@
       <c r="R154" s="57"/>
       <c r="W154" s="57"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
@@ -6777,7 +6749,7 @@
       <c r="R155" s="57"/>
       <c r="W155" s="57"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -6798,7 +6770,7 @@
       <c r="R156" s="57"/>
       <c r="W156" s="57"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
@@ -6819,7 +6791,7 @@
       <c r="R157" s="57"/>
       <c r="W157" s="57"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
@@ -6840,7 +6812,7 @@
       <c r="R158" s="57"/>
       <c r="W158" s="57"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -6861,7 +6833,7 @@
       <c r="R159" s="57"/>
       <c r="W159" s="57"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
@@ -6882,7 +6854,7 @@
       <c r="R160" s="57"/>
       <c r="W160" s="57"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -6903,7 +6875,7 @@
       <c r="R161" s="57"/>
       <c r="W161" s="57"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -6924,7 +6896,7 @@
       <c r="R162" s="57"/>
       <c r="W162" s="57"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -6945,7 +6917,7 @@
       <c r="R163" s="57"/>
       <c r="W163" s="57"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="56"/>
       <c r="B164" s="56"/>
       <c r="C164" s="56"/>
@@ -6966,139 +6938,13 @@
       <c r="R164" s="57"/>
       <c r="W164" s="57"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A165" s="56"/>
-      <c r="B165" s="56"/>
-      <c r="C165" s="56"/>
-      <c r="D165" s="57"/>
-      <c r="E165" s="56"/>
-      <c r="F165" s="56"/>
-      <c r="G165" s="56"/>
-      <c r="H165" s="61"/>
-      <c r="I165" s="56"/>
-      <c r="J165" s="61"/>
-      <c r="K165" s="63"/>
-      <c r="L165" s="56"/>
-      <c r="M165" s="56"/>
-      <c r="N165" s="56"/>
-      <c r="O165" s="56"/>
-      <c r="P165" s="56"/>
-      <c r="Q165" s="61"/>
-      <c r="R165" s="57"/>
-      <c r="W165" s="57"/>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A166" s="56"/>
-      <c r="B166" s="56"/>
-      <c r="C166" s="56"/>
-      <c r="D166" s="57"/>
-      <c r="E166" s="56"/>
-      <c r="F166" s="56"/>
-      <c r="G166" s="56"/>
-      <c r="H166" s="61"/>
-      <c r="I166" s="56"/>
-      <c r="J166" s="61"/>
-      <c r="K166" s="63"/>
-      <c r="L166" s="56"/>
-      <c r="M166" s="56"/>
-      <c r="N166" s="56"/>
-      <c r="O166" s="56"/>
-      <c r="P166" s="56"/>
-      <c r="Q166" s="61"/>
-      <c r="R166" s="57"/>
-      <c r="W166" s="57"/>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A167" s="56"/>
-      <c r="B167" s="56"/>
-      <c r="C167" s="56"/>
-      <c r="D167" s="57"/>
-      <c r="E167" s="56"/>
-      <c r="F167" s="56"/>
-      <c r="G167" s="56"/>
-      <c r="H167" s="61"/>
-      <c r="I167" s="56"/>
-      <c r="J167" s="61"/>
-      <c r="K167" s="63"/>
-      <c r="L167" s="56"/>
-      <c r="M167" s="56"/>
-      <c r="N167" s="56"/>
-      <c r="O167" s="56"/>
-      <c r="P167" s="56"/>
-      <c r="Q167" s="61"/>
-      <c r="R167" s="57"/>
-      <c r="W167" s="57"/>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A168" s="56"/>
-      <c r="B168" s="56"/>
-      <c r="C168" s="56"/>
-      <c r="D168" s="57"/>
-      <c r="E168" s="56"/>
-      <c r="F168" s="56"/>
-      <c r="G168" s="56"/>
-      <c r="H168" s="61"/>
-      <c r="I168" s="56"/>
-      <c r="J168" s="61"/>
-      <c r="K168" s="63"/>
-      <c r="L168" s="56"/>
-      <c r="M168" s="56"/>
-      <c r="N168" s="56"/>
-      <c r="O168" s="56"/>
-      <c r="P168" s="56"/>
-      <c r="Q168" s="61"/>
-      <c r="R168" s="57"/>
-      <c r="W168" s="57"/>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A169" s="56"/>
-      <c r="B169" s="56"/>
-      <c r="C169" s="56"/>
-      <c r="D169" s="57"/>
-      <c r="E169" s="56"/>
-      <c r="F169" s="56"/>
-      <c r="G169" s="56"/>
-      <c r="H169" s="61"/>
-      <c r="I169" s="56"/>
-      <c r="J169" s="61"/>
-      <c r="K169" s="63"/>
-      <c r="L169" s="56"/>
-      <c r="M169" s="56"/>
-      <c r="N169" s="56"/>
-      <c r="O169" s="56"/>
-      <c r="P169" s="56"/>
-      <c r="Q169" s="61"/>
-      <c r="R169" s="57"/>
-      <c r="W169" s="57"/>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A170" s="56"/>
-      <c r="B170" s="56"/>
-      <c r="C170" s="56"/>
-      <c r="D170" s="57"/>
-      <c r="E170" s="56"/>
-      <c r="F170" s="56"/>
-      <c r="G170" s="56"/>
-      <c r="H170" s="61"/>
-      <c r="I170" s="56"/>
-      <c r="J170" s="61"/>
-      <c r="K170" s="63"/>
-      <c r="L170" s="56"/>
-      <c r="M170" s="56"/>
-      <c r="N170" s="56"/>
-      <c r="O170" s="56"/>
-      <c r="P170" s="56"/>
-      <c r="Q170" s="61"/>
-      <c r="R170" s="57"/>
-      <c r="W170" s="57"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N73">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -7123,12 +6969,12 @@
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1" display="10461"/>
     <hyperlink ref="S3" r:id="rId2"/>
-    <hyperlink ref="S14" r:id="rId3"/>
-    <hyperlink ref="S18" r:id="rId4"/>
-    <hyperlink ref="S19" r:id="rId5"/>
-    <hyperlink ref="S5" r:id="rId6" display="http://192.168.60.204/browse/MGYFZZ-212"/>
-    <hyperlink ref="S6" r:id="rId7" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-431"/>
-    <hyperlink ref="S7" r:id="rId8" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/YF-16"/>
+    <hyperlink ref="S8" r:id="rId3"/>
+    <hyperlink ref="S12" r:id="rId4"/>
+    <hyperlink ref="S13" r:id="rId5"/>
+    <hyperlink ref="S15" r:id="rId6" display="http://192.168.60.204/browse/MGYFZZ-212"/>
+    <hyperlink ref="S16" r:id="rId7" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-431"/>
+    <hyperlink ref="S17" r:id="rId8" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/YF-16"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -7139,31 +6985,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
+    <col min="6" max="7" width="7.109375" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" customWidth="1"/>
     <col min="10" max="10" width="44.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.5" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="13" max="13" width="54.77734375" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" customWidth="1"/>
     <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="17" max="17" width="31.109375" customWidth="1"/>
     <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -7219,59 +7065,59 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="116" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="117"/>
+    <row r="2" spans="1:18" ht="30" customHeight="1">
+      <c r="A2" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="94"/>
       <c r="D2" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="117" t="s">
-        <v>206</v>
+        <v>186</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>187</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="118" t="s">
-        <v>211</v>
+        <v>191</v>
+      </c>
+      <c r="J2" s="95" t="s">
+        <v>192</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="L2" s="118" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" s="118" t="s">
-        <v>214</v>
-      </c>
-      <c r="N2" s="118" t="s">
-        <v>215</v>
-      </c>
-      <c r="O2" s="119" t="s">
-        <v>216</v>
-      </c>
-      <c r="P2" s="120" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q2" s="119" t="s">
-        <v>217</v>
-      </c>
-      <c r="R2" s="119"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+      <c r="L2" s="95" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>195</v>
+      </c>
+      <c r="N2" s="95" t="s">
+        <v>196</v>
+      </c>
+      <c r="O2" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="P2" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="R2" s="96"/>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -7291,7 +7137,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -7325,11 +7171,11 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
@@ -7337,22 +7183,22 @@
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:11" ht="19.2">
+      <c r="A1" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.8">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -7387,9 +7233,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
+    <row r="3" spans="1:11" ht="16.8">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -7400,9 +7246,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
+    <row r="4" spans="1:11" ht="16.8">
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -7413,9 +7259,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
+    <row r="5" spans="1:11" ht="16.8">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -7426,9 +7272,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="99"/>
-      <c r="B6" s="99"/>
+    <row r="6" spans="1:11" ht="16.8">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -7439,9 +7285,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
+    <row r="7" spans="1:11" ht="16.8">
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -7452,9 +7298,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
+    <row r="8" spans="1:11" ht="16.8">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -7465,9 +7311,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="99"/>
-      <c r="B9" s="99"/>
+    <row r="9" spans="1:11" ht="16.8">
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -7478,9 +7324,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
+    <row r="10" spans="1:11" ht="16.8">
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -7491,7 +7337,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15.6">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -7525,14 +7371,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="11" width="6.33203125" customWidth="1"/>
@@ -7540,39 +7386,39 @@
     <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7613,169 +7459,169 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="104">
+    <row r="4" spans="1:13" ht="30">
+      <c r="A4" s="107">
         <v>1</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="H4" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="104" t="s">
+      <c r="L4" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="M4" s="113"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="87" t="s">
+      <c r="M4" s="116"/>
+    </row>
+    <row r="5" spans="1:13" ht="15">
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="90" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="114"/>
-    </row>
-    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.15">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="87" t="s">
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="117"/>
+    </row>
+    <row r="6" spans="1:13" ht="45">
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="90" t="s">
+      <c r="E6" s="114"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="114"/>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="87" t="s">
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="117"/>
+    </row>
+    <row r="7" spans="1:13" ht="15">
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="114"/>
-    </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="87" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="117"/>
+    </row>
+    <row r="8" spans="1:13" ht="30">
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="114"/>
-    </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="87" t="s">
+      <c r="E8" s="114"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="117"/>
+    </row>
+    <row r="9" spans="1:13" ht="15">
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="114"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="87" t="s">
+      <c r="E9" s="114"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="117"/>
+    </row>
+    <row r="10" spans="1:13" ht="15">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="114"/>
-    </row>
-    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.15">
-      <c r="A11" s="106"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="88" t="s">
+      <c r="E10" s="114"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="117"/>
+    </row>
+    <row r="11" spans="1:13" ht="30">
+      <c r="A11" s="109"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="115"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="E11" s="115"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7790,7 +7636,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7805,7 +7651,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7820,7 +7666,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7835,7 +7681,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7886,14 +7732,14 @@
       <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="11" width="6.33203125" customWidth="1"/>
@@ -7901,39 +7747,39 @@
     <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7974,46 +7820,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="160" x14ac:dyDescent="0.15">
-      <c r="A4" s="92">
+    <row r="4" spans="1:13" ht="165">
+      <c r="A4" s="90">
         <v>1</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="92" t="s">
+      <c r="I4" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="92" t="s">
+      <c r="L4" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="M4" s="94"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M4" s="92"/>
+    </row>
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -8028,7 +7874,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -8043,7 +7889,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -8058,7 +7904,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -8073,7 +7919,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -8088,7 +7934,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -8103,7 +7949,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -8118,7 +7964,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -8133,7 +7979,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -8148,7 +7994,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -8163,7 +8009,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -8178,7 +8024,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8224,14 +8070,14 @@
       <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="11" width="6.33203125" customWidth="1"/>
@@ -8239,39 +8085,39 @@
     <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -8312,46 +8158,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="160" x14ac:dyDescent="0.15">
-      <c r="A4" s="92">
+    <row r="4" spans="1:13" ht="165">
+      <c r="A4" s="90">
         <v>1</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="92" t="s">
+      <c r="I4" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="92" t="s">
+      <c r="L4" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="94"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M4" s="92"/>
+    </row>
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -8366,7 +8212,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -8381,7 +8227,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -8396,7 +8242,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -8411,7 +8257,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -8426,7 +8272,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -8441,7 +8287,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -8456,7 +8302,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -8471,7 +8317,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -8486,7 +8332,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -8501,7 +8347,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -8516,7 +8362,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8562,56 +8408,56 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -8652,7 +8498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -8667,7 +8513,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -8682,7 +8528,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -8697,7 +8543,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -8712,7 +8558,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -8727,7 +8573,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -8742,7 +8588,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -8757,7 +8603,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -8772,7 +8618,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -8787,7 +8633,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -8802,7 +8648,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -8817,7 +8663,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -8832,7 +8678,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8878,18 +8724,18 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -8915,7 +8761,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8925,7 +8771,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -8935,7 +8781,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -8945,7 +8791,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8955,7 +8801,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8965,7 +8811,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8975,7 +8821,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8985,7 +8831,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8995,7 +8841,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -9005,7 +8851,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -9015,7 +8861,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -9025,7 +8871,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -9035,7 +8881,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -9045,7 +8891,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -9055,7 +8901,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -9065,7 +8911,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -9075,7 +8921,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -9085,7 +8931,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9.xlsx
+++ b/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="228">
   <si>
     <t>No</t>
   </si>
@@ -917,6 +917,88 @@
   </si>
   <si>
     <t>可重复执行，如有错，需开发修复</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>JB组</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态和租约业务监控</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁冰秋</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶落</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SalesMonitorTask</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesMonitorTask</t>
+  </si>
+  <si>
+    <r>
+      <t>{"taskImpl":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>com.mogoroom.tasktracker.task.SalesMonitorTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每隔1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行一次</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1468,7 +1550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1754,6 +1836,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1817,20 +1914,14 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -7140,7 +7231,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R2"/>
+      <selection activeCell="A3" sqref="A3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -7220,17 +7311,17 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="117"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="117" t="s">
+      <c r="E2" s="96" t="s">
         <v>206</v>
       </c>
       <c r="F2" s="35" t="s">
@@ -7245,51 +7336,83 @@
       <c r="I2" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="J2" s="118" t="s">
+      <c r="J2" s="97" t="s">
         <v>211</v>
       </c>
       <c r="K2" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="118" t="s">
+      <c r="L2" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="M2" s="118" t="s">
+      <c r="M2" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="N2" s="118" t="s">
+      <c r="N2" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="O2" s="119" t="s">
+      <c r="O2" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="P2" s="120" t="s">
+      <c r="P2" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="98" t="s">
         <v>217</v>
       </c>
-      <c r="R2" s="119"/>
+      <c r="R2" s="98"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="A3" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="121" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="122" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="L3" s="97" t="s">
+        <v>224</v>
+      </c>
+      <c r="M3" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="N3" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q3" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="R3" s="98"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
@@ -7338,19 +7461,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -7388,8 +7511,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -7401,8 +7524,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -7414,8 +7537,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -7427,8 +7550,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="99"/>
-      <c r="B6" s="99"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -7440,8 +7563,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -7453,8 +7576,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -7466,8 +7589,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="99"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -7479,8 +7602,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -7541,36 +7664,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7614,166 +7737,166 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="104">
+      <c r="A4" s="109">
         <v>1</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="112" t="s">
         <v>144</v>
       </c>
       <c r="D4" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="109" t="s">
         <v>154</v>
       </c>
       <c r="G4" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="H4" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="104" t="s">
+      <c r="L4" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="M4" s="113"/>
+      <c r="M4" s="118"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="105"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="114"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="119"/>
     </row>
     <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.15">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="108"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="105"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="110"/>
       <c r="G6" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="114"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="119"/>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="108"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="105"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="90"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="114"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="119"/>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="108"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="105"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="90"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="114"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="119"/>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="108"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="105"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="90"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="114"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="119"/>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="108"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="105"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="90"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="114"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="119"/>
     </row>
     <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.15">
-      <c r="A11" s="106"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="109"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="106"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="91"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="115"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="120"/>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
@@ -7902,36 +8025,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -8240,36 +8363,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -8580,36 +8703,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
